--- a/data/S2-Myt-sxt-Diffexp888-Clusters.xlsx
+++ b/data/S2-Myt-sxt-Diffexp888-Clusters.xlsx
@@ -9551,25 +9551,25 @@
     <t>TR9996_c0_g1_i1</t>
   </si>
   <si>
-    <t>D1 Elevated</t>
-  </si>
-  <si>
-    <t>D2 Elevated</t>
-  </si>
-  <si>
     <t>Cluster</t>
   </si>
   <si>
-    <t>D3-4 Elevated</t>
-  </si>
-  <si>
-    <t>D5 Elevated</t>
-  </si>
-  <si>
     <t>Down all</t>
   </si>
   <si>
     <t>lncRNA</t>
+  </si>
+  <si>
+    <t>H4 Elevated</t>
+  </si>
+  <si>
+    <t>H8 Elevated</t>
+  </si>
+  <si>
+    <t>h16-24 Elevated</t>
+  </si>
+  <si>
+    <t>h48 Elevated</t>
   </si>
 </sst>
 </file>
@@ -9894,14 +9894,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U889"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="H614" sqref="H614"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="U278" sqref="U278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="8" max="8" width="73.1640625" customWidth="1"/>
+    <col min="21" max="21" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
@@ -9966,7 +9967,7 @@
         <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -9992,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -10018,7 +10019,7 @@
         <v>0.129</v>
       </c>
       <c r="U3" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -10044,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -10070,10 +10071,10 @@
         <v>36.479999999999997</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
       <c r="U5" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -10129,7 +10130,7 @@
         <v>211</v>
       </c>
       <c r="U6" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -10155,7 +10156,7 @@
         <v>0.184</v>
       </c>
       <c r="U7" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -10181,7 +10182,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -10207,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -10233,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -10259,7 +10260,7 @@
         <v>0.183</v>
       </c>
       <c r="U11" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -10285,7 +10286,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -10341,7 +10342,7 @@
         <v>1456</v>
       </c>
       <c r="U13" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -10367,7 +10368,7 @@
         <v>1.5580000000000001</v>
       </c>
       <c r="U14" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -10393,7 +10394,7 @@
         <v>6.9480000000000004</v>
       </c>
       <c r="U15" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -10419,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -10445,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -10471,7 +10472,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -10497,7 +10498,7 @@
         <v>147.46</v>
       </c>
       <c r="U19" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -10550,7 +10551,7 @@
         <v>117</v>
       </c>
       <c r="U20" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -10576,7 +10577,7 @@
         <v>1.2090000000000001</v>
       </c>
       <c r="U21" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -10602,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -10658,7 +10659,7 @@
         <v>148</v>
       </c>
       <c r="U23" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -10717,7 +10718,7 @@
         <v>107</v>
       </c>
       <c r="U24" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
@@ -10743,7 +10744,7 @@
         <v>46.658999999999999</v>
       </c>
       <c r="U25" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -10769,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -10825,7 +10826,7 @@
         <v>98</v>
       </c>
       <c r="U27" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -10851,7 +10852,7 @@
         <v>44.651000000000003</v>
       </c>
       <c r="U28" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -10877,7 +10878,7 @@
         <v>33.706000000000003</v>
       </c>
       <c r="U29" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -10930,7 +10931,7 @@
         <v>213</v>
       </c>
       <c r="U30" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -10986,7 +10987,7 @@
         <v>205</v>
       </c>
       <c r="U31" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -11012,7 +11013,7 @@
         <v>156.423</v>
       </c>
       <c r="U32" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -11038,7 +11039,7 @@
         <v>98.234999999999999</v>
       </c>
       <c r="U33" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -11064,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
@@ -11090,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
@@ -11116,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -11172,7 +11173,7 @@
         <v>744</v>
       </c>
       <c r="U37" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
@@ -11198,7 +11199,7 @@
         <v>4.367</v>
       </c>
       <c r="U38" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
@@ -11224,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
@@ -11250,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
@@ -11276,7 +11277,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
@@ -11329,7 +11330,7 @@
         <v>172</v>
       </c>
       <c r="U42" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
@@ -11355,7 +11356,7 @@
         <v>68.528999999999996</v>
       </c>
       <c r="U43" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -11381,7 +11382,7 @@
         <v>45.670999999999999</v>
       </c>
       <c r="U44" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
@@ -11407,7 +11408,7 @@
         <v>20.536999999999999</v>
       </c>
       <c r="U45" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
@@ -11463,7 +11464,7 @@
         <v>295</v>
       </c>
       <c r="U46" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
@@ -11489,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
@@ -11515,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="U48" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
@@ -11541,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="U49" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
@@ -11567,7 +11568,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="U50" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
@@ -11593,7 +11594,7 @@
         <v>0.35099999999999998</v>
       </c>
       <c r="U51" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
@@ -11619,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="U52" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
@@ -11675,7 +11676,7 @@
         <v>255</v>
       </c>
       <c r="U53" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
@@ -11701,7 +11702,7 @@
         <v>1.054</v>
       </c>
       <c r="U54" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
@@ -11727,7 +11728,7 @@
         <v>42.23</v>
       </c>
       <c r="U55" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
@@ -11753,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="U56" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
@@ -11779,7 +11780,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="U57" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
@@ -11805,7 +11806,7 @@
         <v>0</v>
       </c>
       <c r="U58" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
@@ -11858,7 +11859,7 @@
         <v>200</v>
       </c>
       <c r="U59" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
@@ -11884,7 +11885,7 @@
         <v>52.350999999999999</v>
       </c>
       <c r="U60" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
@@ -11910,7 +11911,7 @@
         <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
@@ -11936,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
@@ -11962,7 +11963,7 @@
         <v>0.47299999999999998</v>
       </c>
       <c r="U63" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
@@ -11988,7 +11989,7 @@
         <v>0</v>
       </c>
       <c r="U64" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
@@ -12014,7 +12015,7 @@
         <v>0</v>
       </c>
       <c r="U65" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
@@ -12067,7 +12068,7 @@
         <v>292</v>
       </c>
       <c r="U66" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
@@ -12093,7 +12094,7 @@
         <v>0</v>
       </c>
       <c r="U67" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
@@ -12119,7 +12120,7 @@
         <v>3.5880000000000001</v>
       </c>
       <c r="U68" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
@@ -12145,7 +12146,7 @@
         <v>178.75399999999999</v>
       </c>
       <c r="U69" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
@@ -12171,7 +12172,7 @@
         <v>0.89400000000000002</v>
       </c>
       <c r="U70" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
@@ -12197,7 +12198,7 @@
         <v>0</v>
       </c>
       <c r="U71" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
@@ -12253,7 +12254,7 @@
         <v>253</v>
       </c>
       <c r="U72" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
@@ -12306,7 +12307,7 @@
         <v>213</v>
       </c>
       <c r="U73" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
@@ -12332,7 +12333,7 @@
         <v>3.86</v>
       </c>
       <c r="U74" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
@@ -12358,7 +12359,7 @@
         <v>4.0190000000000001</v>
       </c>
       <c r="U75" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
@@ -12414,7 +12415,7 @@
         <v>304</v>
       </c>
       <c r="U76" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
@@ -12440,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="U77" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
@@ -12493,7 +12494,7 @@
         <v>96</v>
       </c>
       <c r="U78" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
@@ -12519,7 +12520,7 @@
         <v>11.802</v>
       </c>
       <c r="U79" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
@@ -12545,7 +12546,7 @@
         <v>0</v>
       </c>
       <c r="U80" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
@@ -12571,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="U81" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
@@ -12597,7 +12598,7 @@
         <v>8.157</v>
       </c>
       <c r="U82" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.2">
@@ -12653,7 +12654,7 @@
         <v>282</v>
       </c>
       <c r="U83" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
@@ -12679,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="U84" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
@@ -12705,7 +12706,7 @@
         <v>0.24299999999999999</v>
       </c>
       <c r="U85" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
@@ -12731,7 +12732,7 @@
         <v>0.44900000000000001</v>
       </c>
       <c r="U86" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
@@ -12757,7 +12758,7 @@
         <v>0</v>
       </c>
       <c r="U87" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
@@ -12783,7 +12784,7 @@
         <v>0</v>
       </c>
       <c r="U88" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
@@ -12809,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="U89" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
@@ -12835,7 +12836,7 @@
         <v>1.679</v>
       </c>
       <c r="U90" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
@@ -12861,7 +12862,7 @@
         <v>0.16900000000000001</v>
       </c>
       <c r="U91" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
@@ -12887,10 +12888,10 @@
         <v>1.3149999999999999</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
       <c r="U92" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
@@ -12916,7 +12917,7 @@
         <v>5.1470000000000002</v>
       </c>
       <c r="U93" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
@@ -12942,7 +12943,7 @@
         <v>0</v>
       </c>
       <c r="U94" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
@@ -12998,7 +12999,7 @@
         <v>83</v>
       </c>
       <c r="U95" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
@@ -13054,7 +13055,7 @@
         <v>115</v>
       </c>
       <c r="U96" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.2">
@@ -13110,7 +13111,7 @@
         <v>365</v>
       </c>
       <c r="U97" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
@@ -13136,7 +13137,7 @@
         <v>1.944</v>
       </c>
       <c r="U98" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
@@ -13162,7 +13163,7 @@
         <v>1.2649999999999999</v>
       </c>
       <c r="U99" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
@@ -13209,7 +13210,7 @@
         <v>61</v>
       </c>
       <c r="U100" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
@@ -13235,7 +13236,7 @@
         <v>0</v>
       </c>
       <c r="U101" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
@@ -13294,7 +13295,7 @@
         <v>209</v>
       </c>
       <c r="U102" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
@@ -13320,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="U103" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
@@ -13346,10 +13347,10 @@
         <v>0.154</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
       <c r="U104" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
@@ -13375,7 +13376,7 @@
         <v>1.202</v>
       </c>
       <c r="U105" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
@@ -13401,7 +13402,7 @@
         <v>31.695</v>
       </c>
       <c r="U106" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
@@ -13448,7 +13449,7 @@
         <v>49</v>
       </c>
       <c r="U107" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
@@ -13474,10 +13475,10 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
       <c r="U108" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.2">
@@ -13503,7 +13504,7 @@
         <v>3.1960000000000002</v>
       </c>
       <c r="U109" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
@@ -13529,7 +13530,7 @@
         <v>3.73</v>
       </c>
       <c r="U110" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
@@ -13555,7 +13556,7 @@
         <v>0.68100000000000005</v>
       </c>
       <c r="U111" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.2">
@@ -13581,7 +13582,7 @@
         <v>16.602</v>
       </c>
       <c r="U112" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.2">
@@ -13634,7 +13635,7 @@
         <v>376</v>
       </c>
       <c r="U113" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.2">
@@ -13660,7 +13661,7 @@
         <v>0</v>
       </c>
       <c r="U114" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.2">
@@ -13686,7 +13687,7 @@
         <v>0</v>
       </c>
       <c r="U115" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.2">
@@ -13742,7 +13743,7 @@
         <v>1746</v>
       </c>
       <c r="U116" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.2">
@@ -13798,7 +13799,7 @@
         <v>431</v>
       </c>
       <c r="U117" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.2">
@@ -13824,7 +13825,7 @@
         <v>4.9580000000000002</v>
       </c>
       <c r="U118" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.2">
@@ -13850,7 +13851,7 @@
         <v>0</v>
       </c>
       <c r="U119" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.2">
@@ -13876,7 +13877,7 @@
         <v>0.67700000000000005</v>
       </c>
       <c r="U120" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.2">
@@ -13902,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="U121" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.2">
@@ -13928,7 +13929,7 @@
         <v>0</v>
       </c>
       <c r="U122" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.2">
@@ -13954,7 +13955,7 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="U123" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.2">
@@ -14010,7 +14011,7 @@
         <v>912</v>
       </c>
       <c r="U124" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.2">
@@ -14069,7 +14070,7 @@
         <v>199</v>
       </c>
       <c r="U125" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.2">
@@ -14125,7 +14126,7 @@
         <v>502</v>
       </c>
       <c r="U126" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.2">
@@ -14151,7 +14152,7 @@
         <v>1.1479999999999999</v>
       </c>
       <c r="U127" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
@@ -14177,7 +14178,7 @@
         <v>0</v>
       </c>
       <c r="U128" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.2">
@@ -14203,7 +14204,7 @@
         <v>9.32</v>
       </c>
       <c r="U129" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.2">
@@ -14229,7 +14230,7 @@
         <v>0</v>
       </c>
       <c r="U130" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.2">
@@ -14255,7 +14256,7 @@
         <v>0.24099999999999999</v>
       </c>
       <c r="U131" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.2">
@@ -14311,7 +14312,7 @@
         <v>160</v>
       </c>
       <c r="U132" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.2">
@@ -14337,7 +14338,7 @@
         <v>3.5270000000000001</v>
       </c>
       <c r="U133" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.2">
@@ -14363,7 +14364,7 @@
         <v>0</v>
       </c>
       <c r="U134" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.2">
@@ -14389,7 +14390,7 @@
         <v>0</v>
       </c>
       <c r="U135" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.2">
@@ -14445,7 +14446,7 @@
         <v>430</v>
       </c>
       <c r="U136" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.2">
@@ -14471,7 +14472,7 @@
         <v>1.5349999999999999</v>
       </c>
       <c r="U137" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.2">
@@ -14527,7 +14528,7 @@
         <v>224</v>
       </c>
       <c r="U138" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.2">
@@ -14580,7 +14581,7 @@
         <v>148</v>
       </c>
       <c r="U139" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.2">
@@ -14606,7 +14607,7 @@
         <v>1.605</v>
       </c>
       <c r="U140" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.2">
@@ -14632,7 +14633,7 @@
         <v>1.873</v>
       </c>
       <c r="U141" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.2">
@@ -14658,7 +14659,7 @@
         <v>0.23400000000000001</v>
       </c>
       <c r="U142" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.2">
@@ -14684,7 +14685,7 @@
         <v>12.169</v>
       </c>
       <c r="U143" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.2">
@@ -14710,7 +14711,7 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="U144" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.2">
@@ -14766,7 +14767,7 @@
         <v>5100</v>
       </c>
       <c r="U145" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.2">
@@ -14792,7 +14793,7 @@
         <v>0</v>
       </c>
       <c r="U146" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.2">
@@ -14818,7 +14819,7 @@
         <v>0</v>
       </c>
       <c r="U147" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.2">
@@ -14874,7 +14875,7 @@
         <v>592</v>
       </c>
       <c r="U148" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.2">
@@ -14900,7 +14901,7 @@
         <v>0</v>
       </c>
       <c r="U149" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.2">
@@ -14926,7 +14927,7 @@
         <v>0</v>
       </c>
       <c r="U150" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.2">
@@ -14985,7 +14986,7 @@
         <v>353</v>
       </c>
       <c r="U151" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.2">
@@ -15011,7 +15012,7 @@
         <v>0</v>
       </c>
       <c r="U152" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.2">
@@ -15067,7 +15068,7 @@
         <v>2194</v>
       </c>
       <c r="U153" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.2">
@@ -15093,7 +15094,7 @@
         <v>0.01</v>
       </c>
       <c r="U154" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.2">
@@ -15149,7 +15150,7 @@
         <v>457</v>
       </c>
       <c r="U155" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.2">
@@ -15175,7 +15176,7 @@
         <v>0.308</v>
       </c>
       <c r="U156" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.2">
@@ -15231,7 +15232,7 @@
         <v>692</v>
       </c>
       <c r="U157" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.2">
@@ -15287,7 +15288,7 @@
         <v>1124</v>
       </c>
       <c r="U158" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.2">
@@ -15343,7 +15344,7 @@
         <v>1491</v>
       </c>
       <c r="U159" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.2">
@@ -15369,7 +15370,7 @@
         <v>0</v>
       </c>
       <c r="U160" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.2">
@@ -15425,7 +15426,7 @@
         <v>665</v>
       </c>
       <c r="U161" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.2">
@@ -15451,7 +15452,7 @@
         <v>0</v>
       </c>
       <c r="U162" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.2">
@@ -15477,7 +15478,7 @@
         <v>0.219</v>
       </c>
       <c r="U163" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.2">
@@ -15530,7 +15531,7 @@
         <v>156</v>
       </c>
       <c r="U164" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.2">
@@ -15556,7 +15557,7 @@
         <v>0</v>
       </c>
       <c r="U165" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.2">
@@ -15582,7 +15583,7 @@
         <v>0</v>
       </c>
       <c r="U166" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.2">
@@ -15608,7 +15609,7 @@
         <v>0.51800000000000002</v>
       </c>
       <c r="U167" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.2">
@@ -15634,7 +15635,7 @@
         <v>0</v>
       </c>
       <c r="U168" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.2">
@@ -15693,7 +15694,7 @@
         <v>885</v>
       </c>
       <c r="U169" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.2">
@@ -15719,7 +15720,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="U170" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.2">
@@ -15775,7 +15776,7 @@
         <v>926</v>
       </c>
       <c r="U171" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.2">
@@ -15801,7 +15802,7 @@
         <v>1.331</v>
       </c>
       <c r="U172" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.2">
@@ -15827,7 +15828,7 @@
         <v>0.65200000000000002</v>
       </c>
       <c r="U173" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.2">
@@ -15883,7 +15884,7 @@
         <v>906</v>
       </c>
       <c r="U174" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.2">
@@ -15909,7 +15910,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="U175" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.2">
@@ -15935,7 +15936,7 @@
         <v>0.746</v>
       </c>
       <c r="U176" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.2">
@@ -15961,7 +15962,7 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="U177" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.2">
@@ -16017,7 +16018,7 @@
         <v>5635</v>
       </c>
       <c r="U178" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.2">
@@ -16043,7 +16044,7 @@
         <v>1.3620000000000001</v>
       </c>
       <c r="U179" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.2">
@@ -16069,7 +16070,7 @@
         <v>0.192</v>
       </c>
       <c r="U180" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.2">
@@ -16095,7 +16096,7 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="U181" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.2">
@@ -16148,7 +16149,7 @@
         <v>535</v>
       </c>
       <c r="U182" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.2">
@@ -16174,7 +16175,7 @@
         <v>0.113</v>
       </c>
       <c r="U183" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.2">
@@ -16200,7 +16201,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="U184" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.2">
@@ -16226,7 +16227,7 @@
         <v>3.012</v>
       </c>
       <c r="U185" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.2">
@@ -16252,7 +16253,7 @@
         <v>6.2E-2</v>
       </c>
       <c r="U186" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.2">
@@ -16278,7 +16279,7 @@
         <v>0</v>
       </c>
       <c r="U187" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.2">
@@ -16304,7 +16305,7 @@
         <v>4.782</v>
       </c>
       <c r="U188" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.2">
@@ -16330,7 +16331,7 @@
         <v>0</v>
       </c>
       <c r="U189" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.2">
@@ -16386,7 +16387,7 @@
         <v>627</v>
       </c>
       <c r="U190" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.2">
@@ -16442,7 +16443,7 @@
         <v>926</v>
       </c>
       <c r="U191" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.2">
@@ -16468,7 +16469,7 @@
         <v>0</v>
       </c>
       <c r="U192" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.2">
@@ -16524,7 +16525,7 @@
         <v>715</v>
       </c>
       <c r="U193" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.2">
@@ -16550,7 +16551,7 @@
         <v>1.6</v>
       </c>
       <c r="U194" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.2">
@@ -16606,7 +16607,7 @@
         <v>749</v>
       </c>
       <c r="U195" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.2">
@@ -16632,7 +16633,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="U196" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.2">
@@ -16658,7 +16659,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="U197" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.2">
@@ -16684,7 +16685,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="U198" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.2">
@@ -16740,7 +16741,7 @@
         <v>548</v>
       </c>
       <c r="U199" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.2">
@@ -16766,7 +16767,7 @@
         <v>0.161</v>
       </c>
       <c r="U200" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.2">
@@ -16822,7 +16823,7 @@
         <v>193</v>
       </c>
       <c r="U201" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.2">
@@ -16848,7 +16849,7 @@
         <v>0</v>
       </c>
       <c r="U202" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.2">
@@ -16874,7 +16875,7 @@
         <v>0</v>
       </c>
       <c r="U203" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.2">
@@ -16933,7 +16934,7 @@
         <v>238</v>
       </c>
       <c r="U204" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.2">
@@ -16959,7 +16960,7 @@
         <v>6.0380000000000003</v>
       </c>
       <c r="U205" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.2">
@@ -16985,7 +16986,7 @@
         <v>0</v>
       </c>
       <c r="U206" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.2">
@@ -17038,7 +17039,7 @@
         <v>215</v>
       </c>
       <c r="U207" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.2">
@@ -17094,7 +17095,7 @@
         <v>744</v>
       </c>
       <c r="U208" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.2">
@@ -17120,7 +17121,7 @@
         <v>0</v>
       </c>
       <c r="U209" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.2">
@@ -17176,7 +17177,7 @@
         <v>1082</v>
       </c>
       <c r="U210" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.2">
@@ -17202,7 +17203,7 @@
         <v>0</v>
       </c>
       <c r="U211" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.2">
@@ -17258,7 +17259,7 @@
         <v>523</v>
       </c>
       <c r="U212" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.2">
@@ -17284,7 +17285,7 @@
         <v>0</v>
       </c>
       <c r="U213" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.2">
@@ -17310,7 +17311,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="U214" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.2">
@@ -17369,7 +17370,7 @@
         <v>206</v>
       </c>
       <c r="U215" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.2">
@@ -17425,7 +17426,7 @@
         <v>207</v>
       </c>
       <c r="U216" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.2">
@@ -17481,7 +17482,7 @@
         <v>276</v>
       </c>
       <c r="U217" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.2">
@@ -17537,7 +17538,7 @@
         <v>438</v>
       </c>
       <c r="U218" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.2">
@@ -17593,7 +17594,7 @@
         <v>498</v>
       </c>
       <c r="U219" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.2">
@@ -17619,7 +17620,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="U220" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.2">
@@ -17645,7 +17646,7 @@
         <v>1.59</v>
       </c>
       <c r="U221" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.2">
@@ -17701,7 +17702,7 @@
         <v>215</v>
       </c>
       <c r="U222" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.2">
@@ -17754,7 +17755,7 @@
         <v>667</v>
       </c>
       <c r="U223" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.2">
@@ -17810,7 +17811,7 @@
         <v>3562</v>
       </c>
       <c r="U224" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.2">
@@ -17866,7 +17867,7 @@
         <v>366</v>
       </c>
       <c r="U225" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.2">
@@ -17892,7 +17893,7 @@
         <v>0</v>
       </c>
       <c r="U226" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.2">
@@ -17918,7 +17919,7 @@
         <v>0</v>
       </c>
       <c r="U227" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.2">
@@ -17944,7 +17945,7 @@
         <v>0.185</v>
       </c>
       <c r="U228" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.2">
@@ -17970,7 +17971,7 @@
         <v>0.58599999999999997</v>
       </c>
       <c r="U229" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.2">
@@ -17996,7 +17997,7 @@
         <v>0.36599999999999999</v>
       </c>
       <c r="U230" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.2">
@@ -18052,7 +18053,7 @@
         <v>407</v>
       </c>
       <c r="U231" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.2">
@@ -18105,7 +18106,7 @@
         <v>144</v>
       </c>
       <c r="U232" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.2">
@@ -18131,7 +18132,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="U233" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.2">
@@ -18157,7 +18158,7 @@
         <v>0</v>
       </c>
       <c r="U234" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.2">
@@ -18183,7 +18184,7 @@
         <v>0</v>
       </c>
       <c r="U235" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.2">
@@ -18209,7 +18210,7 @@
         <v>0</v>
       </c>
       <c r="U236" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.2">
@@ -18235,7 +18236,7 @@
         <v>0</v>
       </c>
       <c r="U237" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.2">
@@ -18261,7 +18262,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="U238" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.2">
@@ -18287,7 +18288,7 @@
         <v>5.3360000000000003</v>
       </c>
       <c r="U239" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.2">
@@ -18313,7 +18314,7 @@
         <v>2.1960000000000002</v>
       </c>
       <c r="U240" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.2">
@@ -18369,7 +18370,7 @@
         <v>488</v>
       </c>
       <c r="U241" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.2">
@@ -18425,7 +18426,7 @@
         <v>723</v>
       </c>
       <c r="U242" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.2">
@@ -18481,7 +18482,7 @@
         <v>301</v>
       </c>
       <c r="U243" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.2">
@@ -18507,7 +18508,7 @@
         <v>0.22700000000000001</v>
       </c>
       <c r="U244" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.2">
@@ -18533,7 +18534,7 @@
         <v>0</v>
       </c>
       <c r="U245" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.2">
@@ -18559,7 +18560,7 @@
         <v>0.36699999999999999</v>
       </c>
       <c r="U246" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.2">
@@ -18615,7 +18616,7 @@
         <v>1250</v>
       </c>
       <c r="U247" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.2">
@@ -18641,7 +18642,7 @@
         <v>0</v>
       </c>
       <c r="U248" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.2">
@@ -18697,7 +18698,7 @@
         <v>890</v>
       </c>
       <c r="U249" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.2">
@@ -18753,7 +18754,7 @@
         <v>133</v>
       </c>
       <c r="U250" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.2">
@@ -18779,7 +18780,7 @@
         <v>0</v>
       </c>
       <c r="U251" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.2">
@@ -18835,7 +18836,7 @@
         <v>1843</v>
       </c>
       <c r="U252" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.2">
@@ -18891,7 +18892,7 @@
         <v>441</v>
       </c>
       <c r="U253" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.2">
@@ -18947,7 +18948,7 @@
         <v>749</v>
       </c>
       <c r="U254" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.2">
@@ -19003,7 +19004,7 @@
         <v>414</v>
       </c>
       <c r="U255" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.2">
@@ -19059,7 +19060,7 @@
         <v>209</v>
       </c>
       <c r="U256" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.2">
@@ -19085,7 +19086,7 @@
         <v>3.0870000000000002</v>
       </c>
       <c r="U257" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.2">
@@ -19144,7 +19145,7 @@
         <v>532</v>
       </c>
       <c r="U258" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.2">
@@ -19203,7 +19204,7 @@
         <v>532</v>
       </c>
       <c r="U259" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="260" spans="1:21" x14ac:dyDescent="0.2">
@@ -19229,7 +19230,7 @@
         <v>1.9930000000000001</v>
       </c>
       <c r="U260" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="261" spans="1:21" x14ac:dyDescent="0.2">
@@ -19255,7 +19256,7 @@
         <v>2.9710000000000001</v>
       </c>
       <c r="U261" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="262" spans="1:21" x14ac:dyDescent="0.2">
@@ -19311,7 +19312,7 @@
         <v>906</v>
       </c>
       <c r="U262" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="263" spans="1:21" x14ac:dyDescent="0.2">
@@ -19337,7 +19338,7 @@
         <v>0</v>
       </c>
       <c r="U263" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="264" spans="1:21" x14ac:dyDescent="0.2">
@@ -19393,7 +19394,7 @@
         <v>916</v>
       </c>
       <c r="U264" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="265" spans="1:21" x14ac:dyDescent="0.2">
@@ -19419,7 +19420,7 @@
         <v>0</v>
       </c>
       <c r="U265" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="266" spans="1:21" x14ac:dyDescent="0.2">
@@ -19475,7 +19476,7 @@
         <v>211</v>
       </c>
       <c r="U266" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="267" spans="1:21" x14ac:dyDescent="0.2">
@@ -19501,7 +19502,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="U267" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="268" spans="1:21" x14ac:dyDescent="0.2">
@@ -19527,7 +19528,7 @@
         <v>0.71</v>
       </c>
       <c r="U268" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="269" spans="1:21" x14ac:dyDescent="0.2">
@@ -19586,7 +19587,7 @@
         <v>219</v>
       </c>
       <c r="U269" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="270" spans="1:21" x14ac:dyDescent="0.2">
@@ -19612,7 +19613,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="U270" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="271" spans="1:21" x14ac:dyDescent="0.2">
@@ -19638,7 +19639,7 @@
         <v>0</v>
       </c>
       <c r="U271" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="272" spans="1:21" x14ac:dyDescent="0.2">
@@ -19664,7 +19665,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="U272" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="273" spans="1:21" x14ac:dyDescent="0.2">
@@ -19720,7 +19721,7 @@
         <v>612</v>
       </c>
       <c r="U273" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="274" spans="1:21" x14ac:dyDescent="0.2">
@@ -19776,7 +19777,7 @@
         <v>612</v>
       </c>
       <c r="U274" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="275" spans="1:21" x14ac:dyDescent="0.2">
@@ -19802,7 +19803,7 @@
         <v>0</v>
       </c>
       <c r="U275" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="276" spans="1:21" x14ac:dyDescent="0.2">
@@ -19858,7 +19859,7 @@
         <v>534</v>
       </c>
       <c r="U276" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="277" spans="1:21" x14ac:dyDescent="0.2">
@@ -19914,7 +19915,7 @@
         <v>245</v>
       </c>
       <c r="U277" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="278" spans="1:21" x14ac:dyDescent="0.2">
@@ -19940,7 +19941,7 @@
         <v>28.626999999999999</v>
       </c>
       <c r="U278" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="279" spans="1:21" x14ac:dyDescent="0.2">
@@ -19966,7 +19967,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="U279" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="280" spans="1:21" x14ac:dyDescent="0.2">
@@ -19992,7 +19993,7 @@
         <v>0.16600000000000001</v>
       </c>
       <c r="U280" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="281" spans="1:21" x14ac:dyDescent="0.2">
@@ -20018,7 +20019,7 @@
         <v>0</v>
       </c>
       <c r="U281" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="282" spans="1:21" x14ac:dyDescent="0.2">
@@ -20074,7 +20075,7 @@
         <v>305</v>
       </c>
       <c r="U282" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="283" spans="1:21" x14ac:dyDescent="0.2">
@@ -20130,7 +20131,7 @@
         <v>1658</v>
       </c>
       <c r="U283" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="284" spans="1:21" x14ac:dyDescent="0.2">
@@ -20189,7 +20190,7 @@
         <v>479</v>
       </c>
       <c r="U284" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="285" spans="1:21" x14ac:dyDescent="0.2">
@@ -20215,7 +20216,7 @@
         <v>0.54200000000000004</v>
       </c>
       <c r="U285" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="286" spans="1:21" x14ac:dyDescent="0.2">
@@ -20271,7 +20272,7 @@
         <v>496</v>
       </c>
       <c r="U286" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="287" spans="1:21" x14ac:dyDescent="0.2">
@@ -20297,7 +20298,7 @@
         <v>0</v>
       </c>
       <c r="U287" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="288" spans="1:21" x14ac:dyDescent="0.2">
@@ -20323,7 +20324,7 @@
         <v>0</v>
       </c>
       <c r="U288" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="289" spans="1:21" x14ac:dyDescent="0.2">
@@ -20349,7 +20350,7 @@
         <v>0</v>
       </c>
       <c r="U289" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="290" spans="1:21" x14ac:dyDescent="0.2">
@@ -20375,7 +20376,7 @@
         <v>3.7069999999999999</v>
       </c>
       <c r="U290" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="291" spans="1:21" x14ac:dyDescent="0.2">
@@ -20431,7 +20432,7 @@
         <v>472</v>
       </c>
       <c r="U291" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="292" spans="1:21" x14ac:dyDescent="0.2">
@@ -20487,7 +20488,7 @@
         <v>472</v>
       </c>
       <c r="U292" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="293" spans="1:21" x14ac:dyDescent="0.2">
@@ -20543,7 +20544,7 @@
         <v>455</v>
       </c>
       <c r="U293" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="294" spans="1:21" x14ac:dyDescent="0.2">
@@ -20599,7 +20600,7 @@
         <v>472</v>
       </c>
       <c r="U294" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="295" spans="1:21" x14ac:dyDescent="0.2">
@@ -20658,7 +20659,7 @@
         <v>486</v>
       </c>
       <c r="U295" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="296" spans="1:21" x14ac:dyDescent="0.2">
@@ -20714,7 +20715,7 @@
         <v>295</v>
       </c>
       <c r="U296" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="297" spans="1:21" x14ac:dyDescent="0.2">
@@ -20740,7 +20741,7 @@
         <v>0</v>
       </c>
       <c r="U297" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="298" spans="1:21" x14ac:dyDescent="0.2">
@@ -20796,7 +20797,7 @@
         <v>867</v>
       </c>
       <c r="U298" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="299" spans="1:21" x14ac:dyDescent="0.2">
@@ -20852,7 +20853,7 @@
         <v>485</v>
       </c>
       <c r="U299" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="300" spans="1:21" x14ac:dyDescent="0.2">
@@ -20908,7 +20909,7 @@
         <v>594</v>
       </c>
       <c r="U300" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="301" spans="1:21" x14ac:dyDescent="0.2">
@@ -20964,7 +20965,7 @@
         <v>3674</v>
       </c>
       <c r="U301" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="302" spans="1:21" x14ac:dyDescent="0.2">
@@ -21023,7 +21024,7 @@
         <v>7388</v>
       </c>
       <c r="U302" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="303" spans="1:21" x14ac:dyDescent="0.2">
@@ -21079,7 +21080,7 @@
         <v>961</v>
       </c>
       <c r="U303" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="304" spans="1:21" x14ac:dyDescent="0.2">
@@ -21105,7 +21106,7 @@
         <v>0</v>
       </c>
       <c r="U304" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="305" spans="1:21" x14ac:dyDescent="0.2">
@@ -21131,7 +21132,7 @@
         <v>0</v>
       </c>
       <c r="U305" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="306" spans="1:21" x14ac:dyDescent="0.2">
@@ -21157,7 +21158,7 @@
         <v>0</v>
       </c>
       <c r="U306" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="307" spans="1:21" x14ac:dyDescent="0.2">
@@ -21183,7 +21184,7 @@
         <v>0.26500000000000001</v>
       </c>
       <c r="U307" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="308" spans="1:21" x14ac:dyDescent="0.2">
@@ -21209,7 +21210,7 @@
         <v>0.192</v>
       </c>
       <c r="U308" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="309" spans="1:21" x14ac:dyDescent="0.2">
@@ -21235,7 +21236,7 @@
         <v>0</v>
       </c>
       <c r="U309" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="310" spans="1:21" x14ac:dyDescent="0.2">
@@ -21291,7 +21292,7 @@
         <v>5635</v>
       </c>
       <c r="U310" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="311" spans="1:21" x14ac:dyDescent="0.2">
@@ -21347,7 +21348,7 @@
         <v>511</v>
       </c>
       <c r="U311" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="312" spans="1:21" x14ac:dyDescent="0.2">
@@ -21373,7 +21374,7 @@
         <v>1.569</v>
       </c>
       <c r="U312" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="313" spans="1:21" x14ac:dyDescent="0.2">
@@ -21399,7 +21400,7 @@
         <v>0.28299999999999997</v>
       </c>
       <c r="U313" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="314" spans="1:21" x14ac:dyDescent="0.2">
@@ -21425,7 +21426,7 @@
         <v>0</v>
       </c>
       <c r="U314" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="315" spans="1:21" x14ac:dyDescent="0.2">
@@ -21484,7 +21485,7 @@
         <v>4836</v>
       </c>
       <c r="U315" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="316" spans="1:21" x14ac:dyDescent="0.2">
@@ -21510,7 +21511,7 @@
         <v>0.03</v>
       </c>
       <c r="U316" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="317" spans="1:21" x14ac:dyDescent="0.2">
@@ -21566,7 +21567,7 @@
         <v>661</v>
       </c>
       <c r="U317" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="318" spans="1:21" x14ac:dyDescent="0.2">
@@ -21622,7 +21623,7 @@
         <v>2359</v>
       </c>
       <c r="U318" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="319" spans="1:21" x14ac:dyDescent="0.2">
@@ -21678,7 +21679,7 @@
         <v>2353</v>
       </c>
       <c r="U319" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="320" spans="1:21" x14ac:dyDescent="0.2">
@@ -21734,7 +21735,7 @@
         <v>2353</v>
       </c>
       <c r="U320" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="321" spans="1:21" x14ac:dyDescent="0.2">
@@ -21760,7 +21761,7 @@
         <v>0</v>
       </c>
       <c r="U321" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="322" spans="1:21" x14ac:dyDescent="0.2">
@@ -21786,7 +21787,7 @@
         <v>0.311</v>
       </c>
       <c r="U322" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="323" spans="1:21" x14ac:dyDescent="0.2">
@@ -21812,7 +21813,7 @@
         <v>4.4580000000000002</v>
       </c>
       <c r="U323" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="324" spans="1:21" x14ac:dyDescent="0.2">
@@ -21871,7 +21872,7 @@
         <v>287</v>
       </c>
       <c r="U324" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="325" spans="1:21" x14ac:dyDescent="0.2">
@@ -21927,7 +21928,7 @@
         <v>328</v>
       </c>
       <c r="U325" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="326" spans="1:21" x14ac:dyDescent="0.2">
@@ -21953,7 +21954,7 @@
         <v>0</v>
       </c>
       <c r="U326" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="327" spans="1:21" x14ac:dyDescent="0.2">
@@ -21979,7 +21980,7 @@
         <v>0</v>
       </c>
       <c r="U327" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="328" spans="1:21" x14ac:dyDescent="0.2">
@@ -22005,7 +22006,7 @@
         <v>0.03</v>
       </c>
       <c r="U328" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="329" spans="1:21" x14ac:dyDescent="0.2">
@@ -22061,7 +22062,7 @@
         <v>563</v>
       </c>
       <c r="U329" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="330" spans="1:21" x14ac:dyDescent="0.2">
@@ -22117,7 +22118,7 @@
         <v>209</v>
       </c>
       <c r="U330" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="331" spans="1:21" x14ac:dyDescent="0.2">
@@ -22143,7 +22144,7 @@
         <v>0</v>
       </c>
       <c r="U331" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="332" spans="1:21" x14ac:dyDescent="0.2">
@@ -22169,7 +22170,7 @@
         <v>0</v>
       </c>
       <c r="U332" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="333" spans="1:21" x14ac:dyDescent="0.2">
@@ -22195,7 +22196,7 @@
         <v>0.218</v>
       </c>
       <c r="U333" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="334" spans="1:21" x14ac:dyDescent="0.2">
@@ -22221,7 +22222,7 @@
         <v>0</v>
       </c>
       <c r="U334" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="335" spans="1:21" x14ac:dyDescent="0.2">
@@ -22277,7 +22278,7 @@
         <v>373</v>
       </c>
       <c r="U335" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="336" spans="1:21" x14ac:dyDescent="0.2">
@@ -22333,7 +22334,7 @@
         <v>961</v>
       </c>
       <c r="U336" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="337" spans="1:21" x14ac:dyDescent="0.2">
@@ -22389,7 +22390,7 @@
         <v>961</v>
       </c>
       <c r="U337" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="338" spans="1:21" x14ac:dyDescent="0.2">
@@ -22415,7 +22416,7 @@
         <v>0</v>
       </c>
       <c r="U338" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="339" spans="1:21" x14ac:dyDescent="0.2">
@@ -22441,7 +22442,7 @@
         <v>1.984</v>
       </c>
       <c r="U339" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="340" spans="1:21" x14ac:dyDescent="0.2">
@@ -22467,7 +22468,7 @@
         <v>2.859</v>
       </c>
       <c r="U340" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="341" spans="1:21" x14ac:dyDescent="0.2">
@@ -22520,7 +22521,7 @@
         <v>149</v>
       </c>
       <c r="U341" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="342" spans="1:21" x14ac:dyDescent="0.2">
@@ -22576,7 +22577,7 @@
         <v>374</v>
       </c>
       <c r="U342" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="343" spans="1:21" x14ac:dyDescent="0.2">
@@ -22632,7 +22633,7 @@
         <v>496</v>
       </c>
       <c r="U343" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="344" spans="1:21" x14ac:dyDescent="0.2">
@@ -22691,7 +22692,7 @@
         <v>646</v>
       </c>
       <c r="U344" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="345" spans="1:21" x14ac:dyDescent="0.2">
@@ -22747,7 +22748,7 @@
         <v>172</v>
       </c>
       <c r="U345" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="346" spans="1:21" x14ac:dyDescent="0.2">
@@ -22803,7 +22804,7 @@
         <v>948</v>
       </c>
       <c r="U346" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="347" spans="1:21" x14ac:dyDescent="0.2">
@@ -22829,7 +22830,7 @@
         <v>0.33500000000000002</v>
       </c>
       <c r="U347" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="348" spans="1:21" x14ac:dyDescent="0.2">
@@ -22855,7 +22856,7 @@
         <v>0</v>
       </c>
       <c r="U348" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="349" spans="1:21" x14ac:dyDescent="0.2">
@@ -22881,7 +22882,7 @@
         <v>0</v>
       </c>
       <c r="U349" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="350" spans="1:21" x14ac:dyDescent="0.2">
@@ -22907,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="U350" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="351" spans="1:21" x14ac:dyDescent="0.2">
@@ -22933,7 +22934,7 @@
         <v>0.153</v>
       </c>
       <c r="U351" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="352" spans="1:21" x14ac:dyDescent="0.2">
@@ -22959,7 +22960,7 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="U352" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="353" spans="1:21" x14ac:dyDescent="0.2">
@@ -22985,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="U353" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="354" spans="1:21" x14ac:dyDescent="0.2">
@@ -23011,7 +23012,7 @@
         <v>0</v>
       </c>
       <c r="U354" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="355" spans="1:21" x14ac:dyDescent="0.2">
@@ -23037,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="U355" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="356" spans="1:21" x14ac:dyDescent="0.2">
@@ -23093,7 +23094,7 @@
         <v>321</v>
       </c>
       <c r="U356" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="357" spans="1:21" x14ac:dyDescent="0.2">
@@ -23149,7 +23150,7 @@
         <v>659</v>
       </c>
       <c r="U357" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="358" spans="1:21" x14ac:dyDescent="0.2">
@@ -23205,7 +23206,7 @@
         <v>341</v>
       </c>
       <c r="U358" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="359" spans="1:21" x14ac:dyDescent="0.2">
@@ -23231,7 +23232,7 @@
         <v>0</v>
       </c>
       <c r="U359" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="360" spans="1:21" x14ac:dyDescent="0.2">
@@ -23257,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="U360" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="361" spans="1:21" x14ac:dyDescent="0.2">
@@ -23283,7 +23284,7 @@
         <v>0.67200000000000004</v>
       </c>
       <c r="U361" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="362" spans="1:21" x14ac:dyDescent="0.2">
@@ -23339,7 +23340,7 @@
         <v>498</v>
       </c>
       <c r="U362" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="363" spans="1:21" x14ac:dyDescent="0.2">
@@ -23365,7 +23366,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="U363" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="364" spans="1:21" x14ac:dyDescent="0.2">
@@ -23421,7 +23422,7 @@
         <v>927</v>
       </c>
       <c r="U364" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="365" spans="1:21" x14ac:dyDescent="0.2">
@@ -23447,7 +23448,7 @@
         <v>0</v>
       </c>
       <c r="U365" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="366" spans="1:21" x14ac:dyDescent="0.2">
@@ -23473,7 +23474,7 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="U366" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="367" spans="1:21" x14ac:dyDescent="0.2">
@@ -23529,7 +23530,7 @@
         <v>744</v>
       </c>
       <c r="U367" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="368" spans="1:21" x14ac:dyDescent="0.2">
@@ -23555,7 +23556,7 @@
         <v>0</v>
       </c>
       <c r="U368" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="369" spans="1:21" x14ac:dyDescent="0.2">
@@ -23581,7 +23582,7 @@
         <v>1.2490000000000001</v>
       </c>
       <c r="U369" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="370" spans="1:21" x14ac:dyDescent="0.2">
@@ -23607,7 +23608,7 @@
         <v>0.84199999999999997</v>
       </c>
       <c r="U370" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="371" spans="1:21" x14ac:dyDescent="0.2">
@@ -23633,7 +23634,7 @@
         <v>0</v>
       </c>
       <c r="U371" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="372" spans="1:21" x14ac:dyDescent="0.2">
@@ -23686,7 +23687,7 @@
         <v>137</v>
       </c>
       <c r="U372" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="373" spans="1:21" x14ac:dyDescent="0.2">
@@ -23712,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="U373" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="374" spans="1:21" x14ac:dyDescent="0.2">
@@ -23738,7 +23739,7 @@
         <v>0</v>
       </c>
       <c r="U374" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="375" spans="1:21" x14ac:dyDescent="0.2">
@@ -23764,7 +23765,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="U375" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="376" spans="1:21" x14ac:dyDescent="0.2">
@@ -23790,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="U376" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="377" spans="1:21" x14ac:dyDescent="0.2">
@@ -23846,7 +23847,7 @@
         <v>421</v>
       </c>
       <c r="U377" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="378" spans="1:21" x14ac:dyDescent="0.2">
@@ -23902,7 +23903,7 @@
         <v>1442</v>
       </c>
       <c r="U378" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="379" spans="1:21" x14ac:dyDescent="0.2">
@@ -23961,7 +23962,7 @@
         <v>1053</v>
       </c>
       <c r="U379" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="380" spans="1:21" x14ac:dyDescent="0.2">
@@ -24017,7 +24018,7 @@
         <v>810</v>
       </c>
       <c r="U380" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="381" spans="1:21" x14ac:dyDescent="0.2">
@@ -24043,7 +24044,7 @@
         <v>0.113</v>
       </c>
       <c r="U381" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="382" spans="1:21" x14ac:dyDescent="0.2">
@@ -24099,7 +24100,7 @@
         <v>662</v>
       </c>
       <c r="U382" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="383" spans="1:21" x14ac:dyDescent="0.2">
@@ -24155,7 +24156,7 @@
         <v>5100</v>
       </c>
       <c r="U383" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="384" spans="1:21" x14ac:dyDescent="0.2">
@@ -24181,7 +24182,7 @@
         <v>0</v>
       </c>
       <c r="U384" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="385" spans="1:21" x14ac:dyDescent="0.2">
@@ -24207,7 +24208,7 @@
         <v>0.03</v>
       </c>
       <c r="U385" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="386" spans="1:21" x14ac:dyDescent="0.2">
@@ -24233,7 +24234,7 @@
         <v>0</v>
       </c>
       <c r="U386" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="387" spans="1:21" x14ac:dyDescent="0.2">
@@ -24292,7 +24293,7 @@
         <v>487</v>
       </c>
       <c r="U387" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="388" spans="1:21" x14ac:dyDescent="0.2">
@@ -24348,7 +24349,7 @@
         <v>268</v>
       </c>
       <c r="U388" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="389" spans="1:21" x14ac:dyDescent="0.2">
@@ -24374,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="U389" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="390" spans="1:21" x14ac:dyDescent="0.2">
@@ -24430,7 +24431,7 @@
         <v>738</v>
       </c>
       <c r="U390" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="391" spans="1:21" x14ac:dyDescent="0.2">
@@ -24456,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="U391" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="392" spans="1:21" x14ac:dyDescent="0.2">
@@ -24512,7 +24513,7 @@
         <v>330</v>
       </c>
       <c r="U392" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="393" spans="1:21" x14ac:dyDescent="0.2">
@@ -24568,7 +24569,7 @@
         <v>2194</v>
       </c>
       <c r="U393" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="394" spans="1:21" x14ac:dyDescent="0.2">
@@ -24624,7 +24625,7 @@
         <v>330</v>
       </c>
       <c r="U394" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="395" spans="1:21" x14ac:dyDescent="0.2">
@@ -24650,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="U395" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="396" spans="1:21" x14ac:dyDescent="0.2">
@@ -24676,7 +24677,7 @@
         <v>0</v>
       </c>
       <c r="U396" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="397" spans="1:21" x14ac:dyDescent="0.2">
@@ -24702,7 +24703,7 @@
         <v>0</v>
       </c>
       <c r="U397" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="398" spans="1:21" x14ac:dyDescent="0.2">
@@ -24758,7 +24759,7 @@
         <v>798</v>
       </c>
       <c r="U398" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="399" spans="1:21" x14ac:dyDescent="0.2">
@@ -24784,7 +24785,7 @@
         <v>0</v>
       </c>
       <c r="U399" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="400" spans="1:21" x14ac:dyDescent="0.2">
@@ -24840,7 +24841,7 @@
         <v>510</v>
       </c>
       <c r="U400" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="401" spans="1:21" x14ac:dyDescent="0.2">
@@ -24866,7 +24867,7 @@
         <v>0</v>
       </c>
       <c r="U401" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="402" spans="1:21" x14ac:dyDescent="0.2">
@@ -24922,7 +24923,7 @@
         <v>510</v>
       </c>
       <c r="U402" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="403" spans="1:21" x14ac:dyDescent="0.2">
@@ -24948,7 +24949,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="U403" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="404" spans="1:21" x14ac:dyDescent="0.2">
@@ -24974,7 +24975,7 @@
         <v>2.2469999999999999</v>
       </c>
       <c r="U404" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="405" spans="1:21" x14ac:dyDescent="0.2">
@@ -25000,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="U405" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="406" spans="1:21" x14ac:dyDescent="0.2">
@@ -25026,7 +25027,7 @@
         <v>0.55400000000000005</v>
       </c>
       <c r="U406" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="407" spans="1:21" x14ac:dyDescent="0.2">
@@ -25082,7 +25083,7 @@
         <v>430</v>
       </c>
       <c r="U407" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="408" spans="1:21" x14ac:dyDescent="0.2">
@@ -25138,7 +25139,7 @@
         <v>1335</v>
       </c>
       <c r="U408" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="409" spans="1:21" x14ac:dyDescent="0.2">
@@ -25197,7 +25198,7 @@
         <v>211</v>
       </c>
       <c r="U409" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="410" spans="1:21" x14ac:dyDescent="0.2">
@@ -25253,7 +25254,7 @@
         <v>403</v>
       </c>
       <c r="U410" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="411" spans="1:21" x14ac:dyDescent="0.2">
@@ -25309,7 +25310,7 @@
         <v>397</v>
       </c>
       <c r="U411" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="412" spans="1:21" x14ac:dyDescent="0.2">
@@ -25362,7 +25363,7 @@
         <v>315</v>
       </c>
       <c r="U412" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="413" spans="1:21" x14ac:dyDescent="0.2">
@@ -25418,7 +25419,7 @@
         <v>931</v>
       </c>
       <c r="U413" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="414" spans="1:21" x14ac:dyDescent="0.2">
@@ -25444,7 +25445,7 @@
         <v>0</v>
       </c>
       <c r="U414" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="415" spans="1:21" x14ac:dyDescent="0.2">
@@ -25470,7 +25471,7 @@
         <v>0.26900000000000002</v>
       </c>
       <c r="U415" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="416" spans="1:21" x14ac:dyDescent="0.2">
@@ -25496,7 +25497,7 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="U416" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="417" spans="1:21" x14ac:dyDescent="0.2">
@@ -25522,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="U417" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="418" spans="1:21" x14ac:dyDescent="0.2">
@@ -25548,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="U418" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="419" spans="1:21" x14ac:dyDescent="0.2">
@@ -25604,7 +25605,7 @@
         <v>592</v>
       </c>
       <c r="U419" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="420" spans="1:21" x14ac:dyDescent="0.2">
@@ -25660,7 +25661,7 @@
         <v>592</v>
       </c>
       <c r="U420" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="421" spans="1:21" x14ac:dyDescent="0.2">
@@ -25716,7 +25717,7 @@
         <v>592</v>
       </c>
       <c r="U421" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="422" spans="1:21" x14ac:dyDescent="0.2">
@@ -25775,7 +25776,7 @@
         <v>906</v>
       </c>
       <c r="U422" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="423" spans="1:21" x14ac:dyDescent="0.2">
@@ -25831,7 +25832,7 @@
         <v>377</v>
       </c>
       <c r="U423" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="424" spans="1:21" x14ac:dyDescent="0.2">
@@ -25887,7 +25888,7 @@
         <v>476</v>
       </c>
       <c r="U424" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="425" spans="1:21" x14ac:dyDescent="0.2">
@@ -25943,7 +25944,7 @@
         <v>2615</v>
       </c>
       <c r="U425" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="426" spans="1:21" x14ac:dyDescent="0.2">
@@ -25999,7 +26000,7 @@
         <v>966</v>
       </c>
       <c r="U426" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="427" spans="1:21" x14ac:dyDescent="0.2">
@@ -26055,7 +26056,7 @@
         <v>409</v>
       </c>
       <c r="U427" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="428" spans="1:21" x14ac:dyDescent="0.2">
@@ -26111,7 +26112,7 @@
         <v>440</v>
       </c>
       <c r="U428" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="429" spans="1:21" x14ac:dyDescent="0.2">
@@ -26170,7 +26171,7 @@
         <v>474</v>
       </c>
       <c r="U429" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="430" spans="1:21" x14ac:dyDescent="0.2">
@@ -26226,7 +26227,7 @@
         <v>343</v>
       </c>
       <c r="U430" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="431" spans="1:21" x14ac:dyDescent="0.2">
@@ -26252,7 +26253,7 @@
         <v>3.7029999999999998</v>
       </c>
       <c r="U431" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="432" spans="1:21" x14ac:dyDescent="0.2">
@@ -26308,7 +26309,7 @@
         <v>837</v>
       </c>
       <c r="U432" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="433" spans="1:21" x14ac:dyDescent="0.2">
@@ -26364,7 +26365,7 @@
         <v>1039</v>
       </c>
       <c r="U433" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="434" spans="1:21" x14ac:dyDescent="0.2">
@@ -26420,7 +26421,7 @@
         <v>557</v>
       </c>
       <c r="U434" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="435" spans="1:21" x14ac:dyDescent="0.2">
@@ -26476,7 +26477,7 @@
         <v>1440</v>
       </c>
       <c r="U435" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="436" spans="1:21" x14ac:dyDescent="0.2">
@@ -26535,7 +26536,7 @@
         <v>353</v>
       </c>
       <c r="U436" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="437" spans="1:21" x14ac:dyDescent="0.2">
@@ -26594,7 +26595,7 @@
         <v>353</v>
       </c>
       <c r="U437" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="438" spans="1:21" x14ac:dyDescent="0.2">
@@ -26653,7 +26654,7 @@
         <v>353</v>
       </c>
       <c r="U438" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="439" spans="1:21" x14ac:dyDescent="0.2">
@@ -26712,7 +26713,7 @@
         <v>2610</v>
       </c>
       <c r="U439" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="440" spans="1:21" x14ac:dyDescent="0.2">
@@ -26738,7 +26739,7 @@
         <v>0</v>
       </c>
       <c r="U440" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="441" spans="1:21" x14ac:dyDescent="0.2">
@@ -26794,7 +26795,7 @@
         <v>1044</v>
       </c>
       <c r="U441" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="442" spans="1:21" x14ac:dyDescent="0.2">
@@ -26850,7 +26851,7 @@
         <v>1044</v>
       </c>
       <c r="U442" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="443" spans="1:21" x14ac:dyDescent="0.2">
@@ -26876,7 +26877,7 @@
         <v>0</v>
       </c>
       <c r="U443" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="444" spans="1:21" x14ac:dyDescent="0.2">
@@ -26932,7 +26933,7 @@
         <v>212</v>
       </c>
       <c r="U444" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="445" spans="1:21" x14ac:dyDescent="0.2">
@@ -26958,7 +26959,7 @@
         <v>0</v>
       </c>
       <c r="U445" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="446" spans="1:21" x14ac:dyDescent="0.2">
@@ -26984,7 +26985,7 @@
         <v>3.367</v>
       </c>
       <c r="U446" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="447" spans="1:21" x14ac:dyDescent="0.2">
@@ -27010,7 +27011,7 @@
         <v>0</v>
       </c>
       <c r="U447" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="448" spans="1:21" x14ac:dyDescent="0.2">
@@ -27036,7 +27037,7 @@
         <v>0</v>
       </c>
       <c r="U448" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="449" spans="1:21" x14ac:dyDescent="0.2">
@@ -27092,7 +27093,7 @@
         <v>2291</v>
       </c>
       <c r="U449" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="450" spans="1:21" x14ac:dyDescent="0.2">
@@ -27118,7 +27119,7 @@
         <v>0</v>
       </c>
       <c r="U450" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="451" spans="1:21" x14ac:dyDescent="0.2">
@@ -27174,7 +27175,7 @@
         <v>2291</v>
       </c>
       <c r="U451" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="452" spans="1:21" x14ac:dyDescent="0.2">
@@ -27230,7 +27231,7 @@
         <v>379</v>
       </c>
       <c r="U452" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="453" spans="1:21" x14ac:dyDescent="0.2">
@@ -27286,7 +27287,7 @@
         <v>337</v>
       </c>
       <c r="U453" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="454" spans="1:21" x14ac:dyDescent="0.2">
@@ -27312,7 +27313,7 @@
         <v>0</v>
       </c>
       <c r="U454" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="455" spans="1:21" x14ac:dyDescent="0.2">
@@ -27371,7 +27372,7 @@
         <v>575</v>
       </c>
       <c r="U455" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="456" spans="1:21" x14ac:dyDescent="0.2">
@@ -27397,7 +27398,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="U456" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="457" spans="1:21" x14ac:dyDescent="0.2">
@@ -27423,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="U457" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="458" spans="1:21" x14ac:dyDescent="0.2">
@@ -27479,7 +27480,7 @@
         <v>886</v>
       </c>
       <c r="U458" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="459" spans="1:21" x14ac:dyDescent="0.2">
@@ -27538,7 +27539,7 @@
         <v>1544</v>
       </c>
       <c r="U459" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="460" spans="1:21" x14ac:dyDescent="0.2">
@@ -27597,7 +27598,7 @@
         <v>2464</v>
       </c>
       <c r="U460" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="461" spans="1:21" x14ac:dyDescent="0.2">
@@ -27653,7 +27654,7 @@
         <v>737</v>
       </c>
       <c r="U461" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="462" spans="1:21" x14ac:dyDescent="0.2">
@@ -27679,7 +27680,7 @@
         <v>0</v>
       </c>
       <c r="U462" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="463" spans="1:21" x14ac:dyDescent="0.2">
@@ -27705,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="U463" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="464" spans="1:21" x14ac:dyDescent="0.2">
@@ -27764,7 +27765,7 @@
         <v>883</v>
       </c>
       <c r="U464" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="465" spans="1:21" x14ac:dyDescent="0.2">
@@ -27823,7 +27824,7 @@
         <v>908</v>
       </c>
       <c r="U465" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="466" spans="1:21" x14ac:dyDescent="0.2">
@@ -27882,7 +27883,7 @@
         <v>2540</v>
       </c>
       <c r="U466" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="467" spans="1:21" x14ac:dyDescent="0.2">
@@ -27938,7 +27939,7 @@
         <v>1424</v>
       </c>
       <c r="U467" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="468" spans="1:21" x14ac:dyDescent="0.2">
@@ -27994,7 +27995,7 @@
         <v>1096</v>
       </c>
       <c r="U468" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="469" spans="1:21" x14ac:dyDescent="0.2">
@@ -28053,7 +28054,7 @@
         <v>894</v>
       </c>
       <c r="U469" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="470" spans="1:21" x14ac:dyDescent="0.2">
@@ -28109,7 +28110,7 @@
         <v>323</v>
       </c>
       <c r="U470" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="471" spans="1:21" x14ac:dyDescent="0.2">
@@ -28162,7 +28163,7 @@
         <v>346</v>
       </c>
       <c r="U471" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="472" spans="1:21" x14ac:dyDescent="0.2">
@@ -28218,7 +28219,7 @@
         <v>793</v>
       </c>
       <c r="U472" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="473" spans="1:21" x14ac:dyDescent="0.2">
@@ -28244,7 +28245,7 @@
         <v>0</v>
       </c>
       <c r="U473" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="474" spans="1:21" x14ac:dyDescent="0.2">
@@ -28270,7 +28271,7 @@
         <v>0</v>
       </c>
       <c r="U474" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="475" spans="1:21" x14ac:dyDescent="0.2">
@@ -28296,7 +28297,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="U475" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="476" spans="1:21" x14ac:dyDescent="0.2">
@@ -28352,7 +28353,7 @@
         <v>344</v>
       </c>
       <c r="U476" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="477" spans="1:21" x14ac:dyDescent="0.2">
@@ -28408,7 +28409,7 @@
         <v>636</v>
       </c>
       <c r="U477" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="478" spans="1:21" x14ac:dyDescent="0.2">
@@ -28464,7 +28465,7 @@
         <v>765</v>
       </c>
       <c r="U478" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="479" spans="1:21" x14ac:dyDescent="0.2">
@@ -28490,7 +28491,7 @@
         <v>28.783999999999999</v>
       </c>
       <c r="U479" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="480" spans="1:21" x14ac:dyDescent="0.2">
@@ -28516,7 +28517,7 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="U480" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="481" spans="1:21" x14ac:dyDescent="0.2">
@@ -28572,7 +28573,7 @@
         <v>436</v>
       </c>
       <c r="U481" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="482" spans="1:21" x14ac:dyDescent="0.2">
@@ -28628,7 +28629,7 @@
         <v>606</v>
       </c>
       <c r="U482" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="483" spans="1:21" x14ac:dyDescent="0.2">
@@ -28684,7 +28685,7 @@
         <v>606</v>
       </c>
       <c r="U483" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="484" spans="1:21" x14ac:dyDescent="0.2">
@@ -28710,7 +28711,7 @@
         <v>2.2389999999999999</v>
       </c>
       <c r="U484" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="485" spans="1:21" x14ac:dyDescent="0.2">
@@ -28766,7 +28767,7 @@
         <v>156</v>
       </c>
       <c r="U485" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="486" spans="1:21" x14ac:dyDescent="0.2">
@@ -28792,7 +28793,7 @@
         <v>0.24399999999999999</v>
       </c>
       <c r="U486" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="487" spans="1:21" x14ac:dyDescent="0.2">
@@ -28848,7 +28849,7 @@
         <v>409</v>
       </c>
       <c r="U487" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="488" spans="1:21" x14ac:dyDescent="0.2">
@@ -28904,7 +28905,7 @@
         <v>627</v>
       </c>
       <c r="U488" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="489" spans="1:21" x14ac:dyDescent="0.2">
@@ -28960,7 +28961,7 @@
         <v>620</v>
       </c>
       <c r="U489" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="490" spans="1:21" x14ac:dyDescent="0.2">
@@ -29016,7 +29017,7 @@
         <v>627</v>
       </c>
       <c r="U490" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="491" spans="1:21" x14ac:dyDescent="0.2">
@@ -29042,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="U491" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="492" spans="1:21" x14ac:dyDescent="0.2">
@@ -29068,7 +29069,7 @@
         <v>3.2370000000000001</v>
       </c>
       <c r="U492" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="493" spans="1:21" x14ac:dyDescent="0.2">
@@ -29127,7 +29128,7 @@
         <v>5043</v>
       </c>
       <c r="U493" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="494" spans="1:21" x14ac:dyDescent="0.2">
@@ -29153,7 +29154,7 @@
         <v>0.107</v>
       </c>
       <c r="U494" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="495" spans="1:21" x14ac:dyDescent="0.2">
@@ -29179,7 +29180,7 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="U495" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="496" spans="1:21" x14ac:dyDescent="0.2">
@@ -29235,7 +29236,7 @@
         <v>498</v>
       </c>
       <c r="U496" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="497" spans="1:21" x14ac:dyDescent="0.2">
@@ -29261,7 +29262,7 @@
         <v>0</v>
       </c>
       <c r="U497" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="498" spans="1:21" x14ac:dyDescent="0.2">
@@ -29317,7 +29318,7 @@
         <v>316</v>
       </c>
       <c r="U498" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="499" spans="1:21" x14ac:dyDescent="0.2">
@@ -29343,7 +29344,7 @@
         <v>2.2989999999999999</v>
       </c>
       <c r="U499" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="500" spans="1:21" x14ac:dyDescent="0.2">
@@ -29369,7 +29370,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="U500" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="501" spans="1:21" x14ac:dyDescent="0.2">
@@ -29425,7 +29426,7 @@
         <v>354</v>
       </c>
       <c r="U501" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="502" spans="1:21" x14ac:dyDescent="0.2">
@@ -29481,7 +29482,7 @@
         <v>416</v>
       </c>
       <c r="U502" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="503" spans="1:21" x14ac:dyDescent="0.2">
@@ -29507,7 +29508,7 @@
         <v>0</v>
       </c>
       <c r="U503" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="504" spans="1:21" x14ac:dyDescent="0.2">
@@ -29563,7 +29564,7 @@
         <v>1021</v>
       </c>
       <c r="U504" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="505" spans="1:21" x14ac:dyDescent="0.2">
@@ -29619,7 +29620,7 @@
         <v>1021</v>
       </c>
       <c r="U505" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="506" spans="1:21" x14ac:dyDescent="0.2">
@@ -29675,7 +29676,7 @@
         <v>501</v>
       </c>
       <c r="U506" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="507" spans="1:21" x14ac:dyDescent="0.2">
@@ -29731,7 +29732,7 @@
         <v>501</v>
       </c>
       <c r="U507" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="508" spans="1:21" x14ac:dyDescent="0.2">
@@ -29787,7 +29788,7 @@
         <v>390</v>
       </c>
       <c r="U508" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="509" spans="1:21" x14ac:dyDescent="0.2">
@@ -29813,7 +29814,7 @@
         <v>0.27900000000000003</v>
       </c>
       <c r="U509" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="510" spans="1:21" x14ac:dyDescent="0.2">
@@ -29869,7 +29870,7 @@
         <v>382</v>
       </c>
       <c r="U510" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="511" spans="1:21" x14ac:dyDescent="0.2">
@@ -29925,7 +29926,7 @@
         <v>396</v>
       </c>
       <c r="U511" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="512" spans="1:21" x14ac:dyDescent="0.2">
@@ -29951,7 +29952,7 @@
         <v>0.42399999999999999</v>
       </c>
       <c r="U512" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="513" spans="1:21" x14ac:dyDescent="0.2">
@@ -30007,7 +30008,7 @@
         <v>857</v>
       </c>
       <c r="U513" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="514" spans="1:21" x14ac:dyDescent="0.2">
@@ -30033,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="U514" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="515" spans="1:21" x14ac:dyDescent="0.2">
@@ -30089,7 +30090,7 @@
         <v>191</v>
       </c>
       <c r="U515" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="516" spans="1:21" x14ac:dyDescent="0.2">
@@ -30145,7 +30146,7 @@
         <v>983</v>
       </c>
       <c r="U516" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="517" spans="1:21" x14ac:dyDescent="0.2">
@@ -30204,7 +30205,7 @@
         <v>956</v>
       </c>
       <c r="U517" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="518" spans="1:21" x14ac:dyDescent="0.2">
@@ -30260,7 +30261,7 @@
         <v>1108</v>
       </c>
       <c r="U518" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="519" spans="1:21" x14ac:dyDescent="0.2">
@@ -30316,7 +30317,7 @@
         <v>239</v>
       </c>
       <c r="U519" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="520" spans="1:21" x14ac:dyDescent="0.2">
@@ -30372,7 +30373,7 @@
         <v>3462</v>
       </c>
       <c r="U520" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="521" spans="1:21" x14ac:dyDescent="0.2">
@@ -30428,7 +30429,7 @@
         <v>1257</v>
       </c>
       <c r="U521" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="522" spans="1:21" x14ac:dyDescent="0.2">
@@ -30487,7 +30488,7 @@
         <v>372</v>
       </c>
       <c r="U522" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="523" spans="1:21" x14ac:dyDescent="0.2">
@@ -30513,7 +30514,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="U523" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="524" spans="1:21" x14ac:dyDescent="0.2">
@@ -30539,7 +30540,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="U524" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="525" spans="1:21" x14ac:dyDescent="0.2">
@@ -30595,7 +30596,7 @@
         <v>461</v>
       </c>
       <c r="U525" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="526" spans="1:21" x14ac:dyDescent="0.2">
@@ -30651,7 +30652,7 @@
         <v>543</v>
       </c>
       <c r="U526" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="527" spans="1:21" x14ac:dyDescent="0.2">
@@ -30707,7 +30708,7 @@
         <v>321</v>
       </c>
       <c r="U527" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="528" spans="1:21" x14ac:dyDescent="0.2">
@@ -30763,7 +30764,7 @@
         <v>107</v>
       </c>
       <c r="U528" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="529" spans="1:21" x14ac:dyDescent="0.2">
@@ -30822,7 +30823,7 @@
         <v>391</v>
       </c>
       <c r="U529" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="530" spans="1:21" x14ac:dyDescent="0.2">
@@ -30881,7 +30882,7 @@
         <v>499</v>
       </c>
       <c r="U530" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="531" spans="1:21" x14ac:dyDescent="0.2">
@@ -30937,7 +30938,7 @@
         <v>1067</v>
       </c>
       <c r="U531" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="532" spans="1:21" x14ac:dyDescent="0.2">
@@ -30990,7 +30991,7 @@
         <v>967</v>
       </c>
       <c r="U532" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="533" spans="1:21" x14ac:dyDescent="0.2">
@@ -31052,7 +31053,7 @@
         <v>4374</v>
       </c>
       <c r="U533" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="534" spans="1:21" x14ac:dyDescent="0.2">
@@ -31111,7 +31112,7 @@
         <v>974</v>
       </c>
       <c r="U534" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="535" spans="1:21" x14ac:dyDescent="0.2">
@@ -31170,7 +31171,7 @@
         <v>974</v>
       </c>
       <c r="U535" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="536" spans="1:21" x14ac:dyDescent="0.2">
@@ -31226,7 +31227,7 @@
         <v>606</v>
       </c>
       <c r="U536" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="537" spans="1:21" x14ac:dyDescent="0.2">
@@ -31282,7 +31283,7 @@
         <v>487</v>
       </c>
       <c r="U537" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="538" spans="1:21" x14ac:dyDescent="0.2">
@@ -31338,7 +31339,7 @@
         <v>1026</v>
       </c>
       <c r="U538" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="539" spans="1:21" x14ac:dyDescent="0.2">
@@ -31364,7 +31365,7 @@
         <v>0</v>
       </c>
       <c r="U539" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="540" spans="1:21" x14ac:dyDescent="0.2">
@@ -31390,7 +31391,7 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="U540" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="541" spans="1:21" x14ac:dyDescent="0.2">
@@ -31416,7 +31417,7 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="U541" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="542" spans="1:21" x14ac:dyDescent="0.2">
@@ -31442,7 +31443,7 @@
         <v>0</v>
       </c>
       <c r="U542" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="543" spans="1:21" x14ac:dyDescent="0.2">
@@ -31498,7 +31499,7 @@
         <v>1578</v>
       </c>
       <c r="U543" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="544" spans="1:21" x14ac:dyDescent="0.2">
@@ -31524,7 +31525,7 @@
         <v>0</v>
       </c>
       <c r="U544" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="545" spans="1:21" x14ac:dyDescent="0.2">
@@ -31550,7 +31551,7 @@
         <v>3.55</v>
       </c>
       <c r="U545" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="546" spans="1:21" x14ac:dyDescent="0.2">
@@ -31609,7 +31610,7 @@
         <v>872</v>
       </c>
       <c r="U546" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="547" spans="1:21" x14ac:dyDescent="0.2">
@@ -31665,7 +31666,7 @@
         <v>2291</v>
       </c>
       <c r="U547" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="548" spans="1:21" x14ac:dyDescent="0.2">
@@ -31691,7 +31692,7 @@
         <v>0</v>
       </c>
       <c r="U548" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="549" spans="1:21" x14ac:dyDescent="0.2">
@@ -31750,7 +31751,7 @@
         <v>2472</v>
       </c>
       <c r="U549" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="550" spans="1:21" x14ac:dyDescent="0.2">
@@ -31809,7 +31810,7 @@
         <v>602</v>
       </c>
       <c r="U550" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="551" spans="1:21" x14ac:dyDescent="0.2">
@@ -31835,7 +31836,7 @@
         <v>0</v>
       </c>
       <c r="U551" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="552" spans="1:21" x14ac:dyDescent="0.2">
@@ -31891,7 +31892,7 @@
         <v>450</v>
       </c>
       <c r="U552" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="553" spans="1:21" x14ac:dyDescent="0.2">
@@ -31950,7 +31951,7 @@
         <v>538</v>
       </c>
       <c r="U553" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="554" spans="1:21" x14ac:dyDescent="0.2">
@@ -32006,7 +32007,7 @@
         <v>512</v>
       </c>
       <c r="U554" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="555" spans="1:21" x14ac:dyDescent="0.2">
@@ -32062,7 +32063,7 @@
         <v>1530</v>
       </c>
       <c r="U555" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="556" spans="1:21" x14ac:dyDescent="0.2">
@@ -32118,7 +32119,7 @@
         <v>1491</v>
       </c>
       <c r="U556" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="557" spans="1:21" x14ac:dyDescent="0.2">
@@ -32174,7 +32175,7 @@
         <v>732</v>
       </c>
       <c r="U557" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="558" spans="1:21" x14ac:dyDescent="0.2">
@@ -32230,7 +32231,7 @@
         <v>788</v>
       </c>
       <c r="U558" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="559" spans="1:21" x14ac:dyDescent="0.2">
@@ -32286,7 +32287,7 @@
         <v>341</v>
       </c>
       <c r="U559" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="560" spans="1:21" x14ac:dyDescent="0.2">
@@ -32312,7 +32313,7 @@
         <v>0</v>
       </c>
       <c r="U560" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="561" spans="1:21" x14ac:dyDescent="0.2">
@@ -32368,7 +32369,7 @@
         <v>341</v>
       </c>
       <c r="U561" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="562" spans="1:21" x14ac:dyDescent="0.2">
@@ -32394,7 +32395,7 @@
         <v>0</v>
       </c>
       <c r="U562" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="563" spans="1:21" x14ac:dyDescent="0.2">
@@ -32450,7 +32451,7 @@
         <v>292</v>
       </c>
       <c r="U563" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="564" spans="1:21" x14ac:dyDescent="0.2">
@@ -32506,7 +32507,7 @@
         <v>1654</v>
       </c>
       <c r="U564" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="565" spans="1:21" x14ac:dyDescent="0.2">
@@ -32562,7 +32563,7 @@
         <v>1788</v>
       </c>
       <c r="U565" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="566" spans="1:21" x14ac:dyDescent="0.2">
@@ -32618,7 +32619,7 @@
         <v>1786</v>
       </c>
       <c r="U566" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="567" spans="1:21" x14ac:dyDescent="0.2">
@@ -32674,7 +32675,7 @@
         <v>887</v>
       </c>
       <c r="U567" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="568" spans="1:21" x14ac:dyDescent="0.2">
@@ -32727,7 +32728,7 @@
         <v>3380</v>
       </c>
       <c r="U568" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="569" spans="1:21" x14ac:dyDescent="0.2">
@@ -32783,7 +32784,7 @@
         <v>1888</v>
       </c>
       <c r="U569" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="570" spans="1:21" x14ac:dyDescent="0.2">
@@ -32839,7 +32840,7 @@
         <v>2413</v>
       </c>
       <c r="U570" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="571" spans="1:21" x14ac:dyDescent="0.2">
@@ -32865,7 +32866,7 @@
         <v>0</v>
       </c>
       <c r="U571" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="572" spans="1:21" x14ac:dyDescent="0.2">
@@ -32891,7 +32892,7 @@
         <v>0</v>
       </c>
       <c r="U572" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="573" spans="1:21" x14ac:dyDescent="0.2">
@@ -32950,7 +32951,7 @@
         <v>1320</v>
       </c>
       <c r="U573" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="574" spans="1:21" x14ac:dyDescent="0.2">
@@ -32976,7 +32977,7 @@
         <v>0.52300000000000002</v>
       </c>
       <c r="U574" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="575" spans="1:21" x14ac:dyDescent="0.2">
@@ -33002,7 +33003,7 @@
         <v>0.192</v>
       </c>
       <c r="U575" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="576" spans="1:21" x14ac:dyDescent="0.2">
@@ -33028,7 +33029,7 @@
         <v>0</v>
       </c>
       <c r="U576" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="577" spans="1:21" x14ac:dyDescent="0.2">
@@ -33084,7 +33085,7 @@
         <v>923</v>
       </c>
       <c r="U577" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="578" spans="1:21" x14ac:dyDescent="0.2">
@@ -33140,7 +33141,7 @@
         <v>508</v>
       </c>
       <c r="U578" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="579" spans="1:21" x14ac:dyDescent="0.2">
@@ -33190,7 +33191,7 @@
         <v>903</v>
       </c>
       <c r="U579" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="580" spans="1:21" x14ac:dyDescent="0.2">
@@ -33246,7 +33247,7 @@
         <v>512</v>
       </c>
       <c r="U580" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="581" spans="1:21" x14ac:dyDescent="0.2">
@@ -33272,7 +33273,7 @@
         <v>0</v>
       </c>
       <c r="U581" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="582" spans="1:21" x14ac:dyDescent="0.2">
@@ -33298,7 +33299,7 @@
         <v>0</v>
       </c>
       <c r="U582" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="583" spans="1:21" x14ac:dyDescent="0.2">
@@ -33357,7 +33358,7 @@
         <v>604</v>
       </c>
       <c r="U583" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="584" spans="1:21" x14ac:dyDescent="0.2">
@@ -33413,7 +33414,7 @@
         <v>564</v>
       </c>
       <c r="U584" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="585" spans="1:21" x14ac:dyDescent="0.2">
@@ -33469,7 +33470,7 @@
         <v>708</v>
       </c>
       <c r="U585" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="586" spans="1:21" x14ac:dyDescent="0.2">
@@ -33525,7 +33526,7 @@
         <v>413</v>
       </c>
       <c r="U586" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="587" spans="1:21" x14ac:dyDescent="0.2">
@@ -33551,7 +33552,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="U587" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="588" spans="1:21" x14ac:dyDescent="0.2">
@@ -33577,7 +33578,7 @@
         <v>0</v>
       </c>
       <c r="U588" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="589" spans="1:21" x14ac:dyDescent="0.2">
@@ -33603,7 +33604,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="U589" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="590" spans="1:21" x14ac:dyDescent="0.2">
@@ -33629,7 +33630,7 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="U590" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="591" spans="1:21" x14ac:dyDescent="0.2">
@@ -33655,7 +33656,7 @@
         <v>0</v>
       </c>
       <c r="U591" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="592" spans="1:21" x14ac:dyDescent="0.2">
@@ -33681,7 +33682,7 @@
         <v>57.185000000000002</v>
       </c>
       <c r="U592" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="593" spans="1:21" x14ac:dyDescent="0.2">
@@ -33707,7 +33708,7 @@
         <v>24.213000000000001</v>
       </c>
       <c r="U593" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="594" spans="1:21" x14ac:dyDescent="0.2">
@@ -33766,7 +33767,7 @@
         <v>657</v>
       </c>
       <c r="U594" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="595" spans="1:21" x14ac:dyDescent="0.2">
@@ -33792,7 +33793,7 @@
         <v>109.98399999999999</v>
       </c>
       <c r="U595" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="596" spans="1:21" x14ac:dyDescent="0.2">
@@ -33845,7 +33846,7 @@
         <v>156</v>
       </c>
       <c r="U596" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="597" spans="1:21" x14ac:dyDescent="0.2">
@@ -33901,7 +33902,7 @@
         <v>178</v>
       </c>
       <c r="U597" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="598" spans="1:21" x14ac:dyDescent="0.2">
@@ -33957,7 +33958,7 @@
         <v>153</v>
       </c>
       <c r="U598" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="599" spans="1:21" x14ac:dyDescent="0.2">
@@ -33983,7 +33984,7 @@
         <v>10.087999999999999</v>
       </c>
       <c r="U599" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="600" spans="1:21" x14ac:dyDescent="0.2">
@@ -34009,7 +34010,7 @@
         <v>14.744</v>
       </c>
       <c r="U600" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="601" spans="1:21" x14ac:dyDescent="0.2">
@@ -34062,7 +34063,7 @@
         <v>339</v>
       </c>
       <c r="U601" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="602" spans="1:21" x14ac:dyDescent="0.2">
@@ -34088,7 +34089,7 @@
         <v>15.039</v>
       </c>
       <c r="U602" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="603" spans="1:21" x14ac:dyDescent="0.2">
@@ -34114,7 +34115,7 @@
         <v>37.828000000000003</v>
       </c>
       <c r="U603" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="604" spans="1:21" x14ac:dyDescent="0.2">
@@ -34167,7 +34168,7 @@
         <v>213</v>
       </c>
       <c r="U604" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="605" spans="1:21" x14ac:dyDescent="0.2">
@@ -34193,7 +34194,7 @@
         <v>29.004000000000001</v>
       </c>
       <c r="U605" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="606" spans="1:21" x14ac:dyDescent="0.2">
@@ -34219,7 +34220,7 @@
         <v>20.492000000000001</v>
       </c>
       <c r="U606" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="607" spans="1:21" x14ac:dyDescent="0.2">
@@ -34275,7 +34276,7 @@
         <v>367</v>
       </c>
       <c r="U607" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="608" spans="1:21" x14ac:dyDescent="0.2">
@@ -34301,7 +34302,7 @@
         <v>16.381</v>
       </c>
       <c r="U608" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="609" spans="1:21" x14ac:dyDescent="0.2">
@@ -34357,7 +34358,7 @@
         <v>679</v>
       </c>
       <c r="U609" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="610" spans="1:21" x14ac:dyDescent="0.2">
@@ -34413,7 +34414,7 @@
         <v>154</v>
       </c>
       <c r="U610" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="611" spans="1:21" x14ac:dyDescent="0.2">
@@ -34469,7 +34470,7 @@
         <v>154</v>
       </c>
       <c r="U611" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="612" spans="1:21" x14ac:dyDescent="0.2">
@@ -34495,7 +34496,7 @@
         <v>95.21</v>
       </c>
       <c r="U612" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="613" spans="1:21" x14ac:dyDescent="0.2">
@@ -34521,7 +34522,7 @@
         <v>2.5659999999999998</v>
       </c>
       <c r="U613" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="614" spans="1:21" x14ac:dyDescent="0.2">
@@ -34547,10 +34548,10 @@
         <v>30.725000000000001</v>
       </c>
       <c r="H614" s="2" t="s">
+        <v>3177</v>
+      </c>
+      <c r="U614" t="s">
         <v>3181</v>
-      </c>
-      <c r="U614" t="s">
-        <v>3179</v>
       </c>
     </row>
     <row r="615" spans="1:21" x14ac:dyDescent="0.2">
@@ -34576,7 +34577,7 @@
         <v>50.402000000000001</v>
       </c>
       <c r="U615" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="616" spans="1:21" x14ac:dyDescent="0.2">
@@ -34632,7 +34633,7 @@
         <v>89</v>
       </c>
       <c r="U616" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="617" spans="1:21" x14ac:dyDescent="0.2">
@@ -34688,7 +34689,7 @@
         <v>122</v>
       </c>
       <c r="U617" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="618" spans="1:21" x14ac:dyDescent="0.2">
@@ -34714,7 +34715,7 @@
         <v>100.244</v>
       </c>
       <c r="U618" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="619" spans="1:21" x14ac:dyDescent="0.2">
@@ -34770,7 +34771,7 @@
         <v>335</v>
       </c>
       <c r="U619" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="620" spans="1:21" x14ac:dyDescent="0.2">
@@ -34796,7 +34797,7 @@
         <v>169.19800000000001</v>
       </c>
       <c r="U620" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="621" spans="1:21" x14ac:dyDescent="0.2">
@@ -34822,7 +34823,7 @@
         <v>25.827999999999999</v>
       </c>
       <c r="U621" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="622" spans="1:21" x14ac:dyDescent="0.2">
@@ -34878,7 +34879,7 @@
         <v>2263</v>
       </c>
       <c r="U622" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="623" spans="1:21" x14ac:dyDescent="0.2">
@@ -34934,7 +34935,7 @@
         <v>461</v>
       </c>
       <c r="U623" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="624" spans="1:21" x14ac:dyDescent="0.2">
@@ -34960,7 +34961,7 @@
         <v>0</v>
       </c>
       <c r="U624" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="625" spans="1:21" x14ac:dyDescent="0.2">
@@ -34986,7 +34987,7 @@
         <v>322.95800000000003</v>
       </c>
       <c r="U625" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="626" spans="1:21" x14ac:dyDescent="0.2">
@@ -35012,7 +35013,7 @@
         <v>15.471</v>
       </c>
       <c r="U626" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="627" spans="1:21" x14ac:dyDescent="0.2">
@@ -35038,7 +35039,7 @@
         <v>33.450000000000003</v>
       </c>
       <c r="U627" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="628" spans="1:21" x14ac:dyDescent="0.2">
@@ -35064,7 +35065,7 @@
         <v>2.266</v>
       </c>
       <c r="U628" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="629" spans="1:21" x14ac:dyDescent="0.2">
@@ -35120,7 +35121,7 @@
         <v>457</v>
       </c>
       <c r="U629" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="630" spans="1:21" x14ac:dyDescent="0.2">
@@ -35146,7 +35147,7 @@
         <v>18.794</v>
       </c>
       <c r="U630" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="631" spans="1:21" x14ac:dyDescent="0.2">
@@ -35172,7 +35173,7 @@
         <v>25.01</v>
       </c>
       <c r="U631" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="632" spans="1:21" x14ac:dyDescent="0.2">
@@ -35228,7 +35229,7 @@
         <v>186</v>
       </c>
       <c r="U632" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="633" spans="1:21" x14ac:dyDescent="0.2">
@@ -35254,7 +35255,7 @@
         <v>2.968</v>
       </c>
       <c r="U633" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="634" spans="1:21" x14ac:dyDescent="0.2">
@@ -35310,7 +35311,7 @@
         <v>324</v>
       </c>
       <c r="U634" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="635" spans="1:21" x14ac:dyDescent="0.2">
@@ -35366,7 +35367,7 @@
         <v>591</v>
       </c>
       <c r="U635" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="636" spans="1:21" x14ac:dyDescent="0.2">
@@ -35392,7 +35393,7 @@
         <v>21.181999999999999</v>
       </c>
       <c r="U636" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="637" spans="1:21" x14ac:dyDescent="0.2">
@@ -35451,7 +35452,7 @@
         <v>1829</v>
       </c>
       <c r="U637" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="638" spans="1:21" x14ac:dyDescent="0.2">
@@ -35507,7 +35508,7 @@
         <v>197</v>
       </c>
       <c r="U638" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="639" spans="1:21" x14ac:dyDescent="0.2">
@@ -35563,7 +35564,7 @@
         <v>330</v>
       </c>
       <c r="U639" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="640" spans="1:21" x14ac:dyDescent="0.2">
@@ -35589,7 +35590,7 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="U640" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="641" spans="1:21" x14ac:dyDescent="0.2">
@@ -35615,7 +35616,7 @@
         <v>6.4409999999999998</v>
       </c>
       <c r="U641" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="642" spans="1:21" x14ac:dyDescent="0.2">
@@ -35674,7 +35675,7 @@
         <v>2492</v>
       </c>
       <c r="U642" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="643" spans="1:21" x14ac:dyDescent="0.2">
@@ -35700,7 +35701,7 @@
         <v>2.0009999999999999</v>
       </c>
       <c r="U643" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="644" spans="1:21" x14ac:dyDescent="0.2">
@@ -35726,7 +35727,7 @@
         <v>2.3650000000000002</v>
       </c>
       <c r="U644" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="645" spans="1:21" x14ac:dyDescent="0.2">
@@ -35782,7 +35783,7 @@
         <v>217</v>
       </c>
       <c r="U645" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="646" spans="1:21" x14ac:dyDescent="0.2">
@@ -35838,7 +35839,7 @@
         <v>898</v>
       </c>
       <c r="U646" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="647" spans="1:21" x14ac:dyDescent="0.2">
@@ -35864,7 +35865,7 @@
         <v>7.1429999999999998</v>
       </c>
       <c r="U647" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="648" spans="1:21" x14ac:dyDescent="0.2">
@@ -35890,7 +35891,7 @@
         <v>55.345999999999997</v>
       </c>
       <c r="U648" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="649" spans="1:21" x14ac:dyDescent="0.2">
@@ -35916,7 +35917,7 @@
         <v>2.1960000000000002</v>
       </c>
       <c r="U649" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="650" spans="1:21" x14ac:dyDescent="0.2">
@@ -35975,7 +35976,7 @@
         <v>925</v>
       </c>
       <c r="U650" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="651" spans="1:21" x14ac:dyDescent="0.2">
@@ -36001,7 +36002,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="U651" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="652" spans="1:21" x14ac:dyDescent="0.2">
@@ -36057,7 +36058,7 @@
         <v>988</v>
       </c>
       <c r="U652" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="653" spans="1:21" x14ac:dyDescent="0.2">
@@ -36083,7 +36084,7 @@
         <v>240.774</v>
       </c>
       <c r="U653" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="654" spans="1:21" x14ac:dyDescent="0.2">
@@ -36109,7 +36110,7 @@
         <v>13.336</v>
       </c>
       <c r="U654" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="655" spans="1:21" x14ac:dyDescent="0.2">
@@ -36135,7 +36136,7 @@
         <v>4.6470000000000002</v>
       </c>
       <c r="U655" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="656" spans="1:21" x14ac:dyDescent="0.2">
@@ -36161,7 +36162,7 @@
         <v>0</v>
       </c>
       <c r="U656" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="657" spans="1:21" x14ac:dyDescent="0.2">
@@ -36187,7 +36188,7 @@
         <v>0</v>
       </c>
       <c r="U657" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="658" spans="1:21" x14ac:dyDescent="0.2">
@@ -36213,7 +36214,7 @@
         <v>0.36099999999999999</v>
       </c>
       <c r="U658" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="659" spans="1:21" x14ac:dyDescent="0.2">
@@ -36239,7 +36240,7 @@
         <v>3.093</v>
       </c>
       <c r="U659" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="660" spans="1:21" x14ac:dyDescent="0.2">
@@ -36265,7 +36266,7 @@
         <v>1.1539999999999999</v>
       </c>
       <c r="U660" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="661" spans="1:21" x14ac:dyDescent="0.2">
@@ -36318,7 +36319,7 @@
         <v>156</v>
       </c>
       <c r="U661" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="662" spans="1:21" x14ac:dyDescent="0.2">
@@ -36374,7 +36375,7 @@
         <v>68</v>
       </c>
       <c r="U662" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="663" spans="1:21" x14ac:dyDescent="0.2">
@@ -36430,7 +36431,7 @@
         <v>289</v>
       </c>
       <c r="U663" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="664" spans="1:21" x14ac:dyDescent="0.2">
@@ -36456,7 +36457,7 @@
         <v>0.70399999999999996</v>
       </c>
       <c r="U664" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="665" spans="1:21" x14ac:dyDescent="0.2">
@@ -36482,7 +36483,7 @@
         <v>2.0790000000000002</v>
       </c>
       <c r="U665" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="666" spans="1:21" x14ac:dyDescent="0.2">
@@ -36508,7 +36509,7 @@
         <v>0</v>
       </c>
       <c r="U666" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="667" spans="1:21" x14ac:dyDescent="0.2">
@@ -36534,7 +36535,7 @@
         <v>2.0510000000000002</v>
       </c>
       <c r="U667" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="668" spans="1:21" x14ac:dyDescent="0.2">
@@ -36590,7 +36591,7 @@
         <v>929</v>
       </c>
       <c r="U668" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="669" spans="1:21" x14ac:dyDescent="0.2">
@@ -36646,7 +36647,7 @@
         <v>224</v>
       </c>
       <c r="U669" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="670" spans="1:21" x14ac:dyDescent="0.2">
@@ -36702,7 +36703,7 @@
         <v>703</v>
       </c>
       <c r="U670" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="671" spans="1:21" x14ac:dyDescent="0.2">
@@ -36728,7 +36729,7 @@
         <v>0</v>
       </c>
       <c r="U671" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="672" spans="1:21" x14ac:dyDescent="0.2">
@@ -36754,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="U672" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="673" spans="1:21" x14ac:dyDescent="0.2">
@@ -36780,7 +36781,7 @@
         <v>0</v>
       </c>
       <c r="U673" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="674" spans="1:21" x14ac:dyDescent="0.2">
@@ -36806,7 +36807,7 @@
         <v>12.802</v>
       </c>
       <c r="U674" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="675" spans="1:21" x14ac:dyDescent="0.2">
@@ -36832,7 +36833,7 @@
         <v>0.312</v>
       </c>
       <c r="U675" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="676" spans="1:21" x14ac:dyDescent="0.2">
@@ -36858,7 +36859,7 @@
         <v>0</v>
       </c>
       <c r="U676" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="677" spans="1:21" x14ac:dyDescent="0.2">
@@ -36914,7 +36915,7 @@
         <v>493</v>
       </c>
       <c r="U677" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="678" spans="1:21" x14ac:dyDescent="0.2">
@@ -36973,7 +36974,7 @@
         <v>238</v>
       </c>
       <c r="U678" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="679" spans="1:21" x14ac:dyDescent="0.2">
@@ -36999,7 +37000,7 @@
         <v>0</v>
       </c>
       <c r="U679" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="680" spans="1:21" x14ac:dyDescent="0.2">
@@ -37055,7 +37056,7 @@
         <v>302</v>
       </c>
       <c r="U680" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="681" spans="1:21" x14ac:dyDescent="0.2">
@@ -37081,7 +37082,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="U681" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="682" spans="1:21" x14ac:dyDescent="0.2">
@@ -37107,7 +37108,7 @@
         <v>0</v>
       </c>
       <c r="U682" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="683" spans="1:21" x14ac:dyDescent="0.2">
@@ -37133,7 +37134,7 @@
         <v>0</v>
       </c>
       <c r="U683" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="684" spans="1:21" x14ac:dyDescent="0.2">
@@ -37159,7 +37160,7 @@
         <v>0.52100000000000002</v>
       </c>
       <c r="U684" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="685" spans="1:21" x14ac:dyDescent="0.2">
@@ -37185,7 +37186,7 @@
         <v>0</v>
       </c>
       <c r="U685" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="686" spans="1:21" x14ac:dyDescent="0.2">
@@ -37211,7 +37212,7 @@
         <v>0</v>
       </c>
       <c r="U686" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="687" spans="1:21" x14ac:dyDescent="0.2">
@@ -37264,7 +37265,7 @@
         <v>125</v>
       </c>
       <c r="U687" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="688" spans="1:21" x14ac:dyDescent="0.2">
@@ -37290,7 +37291,7 @@
         <v>0</v>
       </c>
       <c r="U688" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="689" spans="1:21" x14ac:dyDescent="0.2">
@@ -37316,7 +37317,7 @@
         <v>0.28299999999999997</v>
       </c>
       <c r="U689" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="690" spans="1:21" x14ac:dyDescent="0.2">
@@ -37372,7 +37373,7 @@
         <v>421</v>
       </c>
       <c r="U690" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="691" spans="1:21" x14ac:dyDescent="0.2">
@@ -37398,7 +37399,7 @@
         <v>1.006</v>
       </c>
       <c r="U691" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="692" spans="1:21" x14ac:dyDescent="0.2">
@@ -37424,7 +37425,7 @@
         <v>6.7930000000000001</v>
       </c>
       <c r="U692" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="693" spans="1:21" x14ac:dyDescent="0.2">
@@ -37450,7 +37451,7 @@
         <v>0</v>
       </c>
       <c r="U693" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="694" spans="1:21" x14ac:dyDescent="0.2">
@@ -37506,7 +37507,7 @@
         <v>208</v>
       </c>
       <c r="U694" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="695" spans="1:21" x14ac:dyDescent="0.2">
@@ -37532,7 +37533,7 @@
         <v>0</v>
       </c>
       <c r="U695" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="696" spans="1:21" x14ac:dyDescent="0.2">
@@ -37558,7 +37559,7 @@
         <v>0</v>
       </c>
       <c r="U696" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="697" spans="1:21" x14ac:dyDescent="0.2">
@@ -37584,7 +37585,7 @@
         <v>1.78</v>
       </c>
       <c r="U697" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="698" spans="1:21" x14ac:dyDescent="0.2">
@@ -37640,7 +37641,7 @@
         <v>102</v>
       </c>
       <c r="U698" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="699" spans="1:21" x14ac:dyDescent="0.2">
@@ -37666,7 +37667,7 @@
         <v>4.4420000000000002</v>
       </c>
       <c r="U699" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="700" spans="1:21" x14ac:dyDescent="0.2">
@@ -37719,7 +37720,7 @@
         <v>1938</v>
       </c>
       <c r="U700" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="701" spans="1:21" x14ac:dyDescent="0.2">
@@ -37745,7 +37746,7 @@
         <v>6.6879999999999997</v>
       </c>
       <c r="U701" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="702" spans="1:21" x14ac:dyDescent="0.2">
@@ -37801,7 +37802,7 @@
         <v>201</v>
       </c>
       <c r="U702" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="703" spans="1:21" x14ac:dyDescent="0.2">
@@ -37857,7 +37858,7 @@
         <v>497</v>
       </c>
       <c r="U703" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="704" spans="1:21" x14ac:dyDescent="0.2">
@@ -37910,7 +37911,7 @@
         <v>195</v>
       </c>
       <c r="U704" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="705" spans="1:21" x14ac:dyDescent="0.2">
@@ -37936,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="U705" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="706" spans="1:21" x14ac:dyDescent="0.2">
@@ -37992,7 +37993,7 @@
         <v>237</v>
       </c>
       <c r="U706" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="707" spans="1:21" x14ac:dyDescent="0.2">
@@ -38018,7 +38019,7 @@
         <v>0.255</v>
       </c>
       <c r="U707" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="708" spans="1:21" x14ac:dyDescent="0.2">
@@ -38077,7 +38078,7 @@
         <v>219</v>
       </c>
       <c r="U708" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="709" spans="1:21" x14ac:dyDescent="0.2">
@@ -38133,7 +38134,7 @@
         <v>249</v>
       </c>
       <c r="U709" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="710" spans="1:21" x14ac:dyDescent="0.2">
@@ -38189,7 +38190,7 @@
         <v>572</v>
       </c>
       <c r="U710" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="711" spans="1:21" x14ac:dyDescent="0.2">
@@ -38215,7 +38216,7 @@
         <v>2.9089999999999998</v>
       </c>
       <c r="U711" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="712" spans="1:21" x14ac:dyDescent="0.2">
@@ -38241,7 +38242,7 @@
         <v>2.2559999999999998</v>
       </c>
       <c r="U712" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="713" spans="1:21" x14ac:dyDescent="0.2">
@@ -38267,7 +38268,7 @@
         <v>0</v>
       </c>
       <c r="U713" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="714" spans="1:21" x14ac:dyDescent="0.2">
@@ -38323,7 +38324,7 @@
         <v>326</v>
       </c>
       <c r="U714" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="715" spans="1:21" x14ac:dyDescent="0.2">
@@ -38382,7 +38383,7 @@
         <v>313</v>
       </c>
       <c r="U715" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="716" spans="1:21" x14ac:dyDescent="0.2">
@@ -38438,7 +38439,7 @@
         <v>547</v>
       </c>
       <c r="U716" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="717" spans="1:21" x14ac:dyDescent="0.2">
@@ -38464,7 +38465,7 @@
         <v>3.0049999999999999</v>
       </c>
       <c r="U717" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="718" spans="1:21" x14ac:dyDescent="0.2">
@@ -38490,7 +38491,7 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="U718" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="719" spans="1:21" x14ac:dyDescent="0.2">
@@ -38516,7 +38517,7 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="U719" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="720" spans="1:21" x14ac:dyDescent="0.2">
@@ -38542,7 +38543,7 @@
         <v>2.3279999999999998</v>
       </c>
       <c r="U720" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="721" spans="1:21" x14ac:dyDescent="0.2">
@@ -38568,7 +38569,7 @@
         <v>4.101</v>
       </c>
       <c r="U721" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="722" spans="1:21" x14ac:dyDescent="0.2">
@@ -38594,7 +38595,7 @@
         <v>0</v>
       </c>
       <c r="U722" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="723" spans="1:21" x14ac:dyDescent="0.2">
@@ -38620,7 +38621,7 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="U723" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="724" spans="1:21" x14ac:dyDescent="0.2">
@@ -38676,7 +38677,7 @@
         <v>222</v>
       </c>
       <c r="U724" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="725" spans="1:21" x14ac:dyDescent="0.2">
@@ -38702,7 +38703,7 @@
         <v>0.40699999999999997</v>
       </c>
       <c r="U725" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="726" spans="1:21" x14ac:dyDescent="0.2">
@@ -38758,7 +38759,7 @@
         <v>137</v>
       </c>
       <c r="U726" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="727" spans="1:21" x14ac:dyDescent="0.2">
@@ -38784,7 +38785,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="U727" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="728" spans="1:21" x14ac:dyDescent="0.2">
@@ -38810,7 +38811,7 @@
         <v>0</v>
       </c>
       <c r="U728" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="729" spans="1:21" x14ac:dyDescent="0.2">
@@ -38836,7 +38837,7 @@
         <v>0</v>
       </c>
       <c r="U729" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="730" spans="1:21" x14ac:dyDescent="0.2">
@@ -38862,7 +38863,7 @@
         <v>0</v>
       </c>
       <c r="U730" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="731" spans="1:21" x14ac:dyDescent="0.2">
@@ -38888,7 +38889,7 @@
         <v>4.9820000000000002</v>
       </c>
       <c r="U731" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="732" spans="1:21" x14ac:dyDescent="0.2">
@@ -38914,7 +38915,7 @@
         <v>0</v>
       </c>
       <c r="U732" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="733" spans="1:21" x14ac:dyDescent="0.2">
@@ -38940,7 +38941,7 @@
         <v>0</v>
       </c>
       <c r="U733" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="734" spans="1:21" x14ac:dyDescent="0.2">
@@ -38966,7 +38967,7 @@
         <v>0.74</v>
       </c>
       <c r="U734" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="735" spans="1:21" x14ac:dyDescent="0.2">
@@ -38992,7 +38993,7 @@
         <v>0.24399999999999999</v>
       </c>
       <c r="U735" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="736" spans="1:21" x14ac:dyDescent="0.2">
@@ -39018,7 +39019,7 @@
         <v>0</v>
       </c>
       <c r="U736" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="737" spans="1:21" x14ac:dyDescent="0.2">
@@ -39071,7 +39072,7 @@
         <v>96</v>
       </c>
       <c r="U737" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="738" spans="1:21" x14ac:dyDescent="0.2">
@@ -39127,7 +39128,7 @@
         <v>330</v>
       </c>
       <c r="U738" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="739" spans="1:21" x14ac:dyDescent="0.2">
@@ -39153,7 +39154,7 @@
         <v>1.242</v>
       </c>
       <c r="U739" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="740" spans="1:21" x14ac:dyDescent="0.2">
@@ -39179,7 +39180,7 @@
         <v>1.7849999999999999</v>
       </c>
       <c r="U740" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="741" spans="1:21" x14ac:dyDescent="0.2">
@@ -39205,7 +39206,7 @@
         <v>1.9019999999999999</v>
       </c>
       <c r="U741" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="742" spans="1:21" x14ac:dyDescent="0.2">
@@ -39261,7 +39262,7 @@
         <v>510</v>
       </c>
       <c r="U742" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="743" spans="1:21" x14ac:dyDescent="0.2">
@@ -39320,7 +39321,7 @@
         <v>148</v>
       </c>
       <c r="U743" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="744" spans="1:21" x14ac:dyDescent="0.2">
@@ -39376,7 +39377,7 @@
         <v>426</v>
       </c>
       <c r="U744" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="745" spans="1:21" x14ac:dyDescent="0.2">
@@ -39402,7 +39403,7 @@
         <v>3.504</v>
       </c>
       <c r="U745" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="746" spans="1:21" x14ac:dyDescent="0.2">
@@ -39428,7 +39429,7 @@
         <v>0</v>
       </c>
       <c r="U746" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="747" spans="1:21" x14ac:dyDescent="0.2">
@@ -39454,7 +39455,7 @@
         <v>0</v>
       </c>
       <c r="U747" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="748" spans="1:21" x14ac:dyDescent="0.2">
@@ -39480,7 +39481,7 @@
         <v>0</v>
       </c>
       <c r="U748" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="749" spans="1:21" x14ac:dyDescent="0.2">
@@ -39506,7 +39507,7 @@
         <v>0.34499999999999997</v>
       </c>
       <c r="U749" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="750" spans="1:21" x14ac:dyDescent="0.2">
@@ -39532,7 +39533,7 @@
         <v>0</v>
       </c>
       <c r="U750" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="751" spans="1:21" x14ac:dyDescent="0.2">
@@ -39558,7 +39559,7 @@
         <v>0</v>
       </c>
       <c r="U751" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="752" spans="1:21" x14ac:dyDescent="0.2">
@@ -39584,7 +39585,7 @@
         <v>0</v>
       </c>
       <c r="U752" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="753" spans="1:21" x14ac:dyDescent="0.2">
@@ -39610,7 +39611,7 @@
         <v>0</v>
       </c>
       <c r="U753" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="754" spans="1:21" x14ac:dyDescent="0.2">
@@ -39666,7 +39667,7 @@
         <v>317</v>
       </c>
       <c r="U754" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="755" spans="1:21" x14ac:dyDescent="0.2">
@@ -39692,7 +39693,7 @@
         <v>0</v>
       </c>
       <c r="U755" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="756" spans="1:21" x14ac:dyDescent="0.2">
@@ -39718,7 +39719,7 @@
         <v>0</v>
       </c>
       <c r="U756" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="757" spans="1:21" x14ac:dyDescent="0.2">
